--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F3305C-AFC0-534D-B9D8-87A7E240410B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27660157-B2C5-6440-9B6A-01AD6F51D5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="253">
   <si>
     <t>ID</t>
   </si>
@@ -60,126 +60,57 @@
     <t>Caterpillar Pops</t>
   </si>
   <si>
-    <t>price_1HpMT1HqV6fz8FYovGzKorpK</t>
-  </si>
-  <si>
-    <t>price_1HpMQ8HqV6fz8FYoVE8r38RB</t>
-  </si>
-  <si>
     <t>light green</t>
   </si>
   <si>
     <t>Curvy Girls</t>
   </si>
   <si>
-    <t>price_1HpMNwHqV6fz8FYoOlzWTta6</t>
-  </si>
-  <si>
-    <t>price_1HqGP9HqV6fz8FYo0XvHwgph</t>
-  </si>
-  <si>
     <t>beige</t>
   </si>
   <si>
     <t>Fish Bones</t>
   </si>
   <si>
-    <t>price_1HpMMGHqV6fz8FYoklYRhc6H</t>
-  </si>
-  <si>
-    <t>price_1HqGRkHqV6fz8FYoO9HEXR8A</t>
-  </si>
-  <si>
     <t>orange</t>
   </si>
   <si>
     <t>Shopping Blocks</t>
   </si>
   <si>
-    <t>price_1HpMJsHqV6fz8FYo9wmoFQ7w</t>
-  </si>
-  <si>
-    <t>price_1HqGTHHqV6fz8FYoONRwmCvD</t>
-  </si>
-  <si>
     <t>dark green</t>
   </si>
   <si>
     <t>Jelly Pinkies</t>
   </si>
   <si>
-    <t>price_1HpMImHqV6fz8FYoHuLHYbmf</t>
-  </si>
-  <si>
-    <t>price_1HqGTfHqV6fz8FYos1o8Uisc</t>
-  </si>
-  <si>
     <t>pink</t>
   </si>
   <si>
     <t>Penny Allsorts</t>
   </si>
   <si>
-    <t>price_1HpMGwHqV6fz8FYojbHc5mkj</t>
-  </si>
-  <si>
-    <t>price_1HqGUpHqV6fz8FYouIAzMJTE</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
     <t>Morning Paddles</t>
   </si>
   <si>
-    <t>price_1HpMFYHqV6fz8FYoEE1faKz1</t>
-  </si>
-  <si>
-    <t>price_1HqGXHHqV6fz8FYo7YiJ6t41</t>
-  </si>
-  <si>
     <t>mint</t>
   </si>
   <si>
     <t>N-Dots</t>
   </si>
   <si>
-    <t>price_1HpMDGHqV6fz8FYovTB7BExt</t>
-  </si>
-  <si>
-    <t>price_1HqGY6HqV6fz8FYo7RtNkbpu</t>
-  </si>
-  <si>
     <t>Minty Ladies</t>
   </si>
   <si>
-    <t>price_1HpMAZHqV6fz8FYomNpxsMvj</t>
-  </si>
-  <si>
-    <t>price_1HphBVHqV6fz8FYov4SX4hyO</t>
-  </si>
-  <si>
     <t>Tango Swirls</t>
   </si>
   <si>
-    <t>price_1HpM91HqV6fz8FYoOkPczDBB</t>
-  </si>
-  <si>
-    <t>price_1HphBtHqV6fz8FYoeOp8Norb</t>
-  </si>
-  <si>
     <t>Donuts</t>
   </si>
   <si>
-    <t>price_1HpKxzHqV6fz8FYoUWFgPjQT</t>
-  </si>
-  <si>
-    <t>price_1HphCGHqV6fz8FYoVtnLqerr</t>
-  </si>
-  <si>
-    <t>Beige</t>
-  </si>
-  <si>
     <t>img 1</t>
   </si>
   <si>
@@ -246,18 +177,6 @@
     <t>Beach Pops</t>
   </si>
   <si>
-    <t>price_1Hr1DHHqV6fz8FYor1cSh2x2</t>
-  </si>
-  <si>
-    <t>price_1Hr1DHHqV6fz8FYobM9dOkli</t>
-  </si>
-  <si>
-    <t>price_1Hr1EJHqV6fz8FYoUDAtl5Ay</t>
-  </si>
-  <si>
-    <t>price_1Hr1EKHqV6fz8FYokl8zZngw</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -303,57 +222,27 @@
     <t>blue</t>
   </si>
   <si>
-    <t>price_1Hr1QwHqV6fz8FYouhWudJJ4</t>
-  </si>
-  <si>
-    <t>price_1Hr1QvHqV6fz8FYoiHzjnwl4</t>
-  </si>
-  <si>
-    <t>Handmade from high-quality polymer clay, connected with gold or silver plated jump rings and earring posts.</t>
-  </si>
-  <si>
     <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, circle charms and earring hooks.</t>
   </si>
   <si>
     <t>Handmade from high-quality polymer clay, connected with gold or silver plated jump rings and earring hooks.</t>
   </si>
   <si>
-    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, geometric charms and earring hooks.</t>
-  </si>
-  <si>
     <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, brass geometric charms and earring hooks.</t>
   </si>
   <si>
-    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, semi-circle charms and earring posts.</t>
-  </si>
-  <si>
-    <t>Handmade from high-quality polymer clay with embossed fern print, connected with silver plated jump rings, circle charms and earring posts.</t>
-  </si>
-  <si>
-    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, circle charms and earring posts.</t>
-  </si>
-  <si>
     <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, oval swilrs and earring hooks.</t>
   </si>
   <si>
     <t xml:space="preserve">Handmade from high-quality polymer clay, connected with gold plated posts and earring backs. </t>
   </si>
   <si>
-    <t>Handmade from high-quality polymer clay with a marbled effect, connected with gold or silver plated jump rings and earring posts.</t>
-  </si>
-  <si>
     <t>Iced Donuts</t>
   </si>
   <si>
     <t xml:space="preserve">Handmade from high-quality polymer clay with coloured print, connected with gold plated posts and earring backs. </t>
   </si>
   <si>
-    <t>price_1Hr3JSHqV6fz8FYokAt6eHSA</t>
-  </si>
-  <si>
-    <t>price_1Hr3JSHqV6fz8FYo00POO16T</t>
-  </si>
-  <si>
     <t>Images/products/Tango Swirls/main.jpeg</t>
   </si>
   <si>
@@ -559,6 +448,350 @@
   </si>
   <si>
     <t>Light Blue w/ White &amp; Dark Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tango Swirls </t>
+  </si>
+  <si>
+    <t>price_1HrhmWHqV6fz8FYooTf0oKnG</t>
+  </si>
+  <si>
+    <t>price_1HrhmWHqV6fz8FYomvjsuBa9</t>
+  </si>
+  <si>
+    <t>price_1Hrhl0HqV6fz8FYorisFCu4J</t>
+  </si>
+  <si>
+    <t>price_1Hrhl0HqV6fz8FYoJitbIm3i</t>
+  </si>
+  <si>
+    <t>price_1HrhmbHqV6fz8FYoT76ckcep</t>
+  </si>
+  <si>
+    <t>price_1HrhmbHqV6fz8FYo5XYlZpPw</t>
+  </si>
+  <si>
+    <t>price_1HrhlDHqV6fz8FYoGNPnlPM5</t>
+  </si>
+  <si>
+    <t>price_1HrhlDHqV6fz8FYoMklTsGoV</t>
+  </si>
+  <si>
+    <t>price_1HrhlpHqV6fz8FYoBYQAodm5</t>
+  </si>
+  <si>
+    <t>price_1HrhlpHqV6fz8FYoqSB6FGIb</t>
+  </si>
+  <si>
+    <t>price_1HrhmKHqV6fz8FYozUf4EuqP</t>
+  </si>
+  <si>
+    <t>price_1HrhmKHqV6fz8FYoFOzePptr</t>
+  </si>
+  <si>
+    <t>price_1HrhmRHqV6fz8FYoSvGHjPcA</t>
+  </si>
+  <si>
+    <t>price_1HrhmRHqV6fz8FYo8KA3fGiO</t>
+  </si>
+  <si>
+    <t>price_1HrhmEHqV6fz8FYo1bBTM9nj</t>
+  </si>
+  <si>
+    <t>price_1HrhmEHqV6fz8FYoTyFsu4yY</t>
+  </si>
+  <si>
+    <t>price_1Hrhm8HqV6fz8FYoRHTDFqcc</t>
+  </si>
+  <si>
+    <t>price_1Hrhm8HqV6fz8FYovsETsYCO</t>
+  </si>
+  <si>
+    <t>price_1Hrhm1HqV6fz8FYoEOUYFKyu</t>
+  </si>
+  <si>
+    <t>price_1Hrhm1HqV6fz8FYoFlO6zw4t</t>
+  </si>
+  <si>
+    <t>price_1HrhlJHqV6fz8FYo3dVkbLvK</t>
+  </si>
+  <si>
+    <t>price_1HrhlJHqV6fz8FYopi1gSHyi</t>
+  </si>
+  <si>
+    <t>price_1HrhlSHqV6fz8FYoNO9JPzam</t>
+  </si>
+  <si>
+    <t>price_1HrhlRHqV6fz8FYoOLvcAIJP</t>
+  </si>
+  <si>
+    <t>price_1HrhljHqV6fz8FYo7PoyO4Zp</t>
+  </si>
+  <si>
+    <t>price_1HrhljHqV6fz8FYoqxxqRgTM</t>
+  </si>
+  <si>
+    <t>price_1Hrhk3HqV6fz8FYobbvajU66</t>
+  </si>
+  <si>
+    <t>price_1Hrhk3HqV6fz8FYo2Zvp3zFq</t>
+  </si>
+  <si>
+    <t>price_1HrhlNHqV6fz8FYoKp4t6epi</t>
+  </si>
+  <si>
+    <t>price_1HrhlNHqV6fz8FYoVm7Cb76O</t>
+  </si>
+  <si>
+    <t>Aunty Pearls</t>
+  </si>
+  <si>
+    <t>Images/products/Aunty Pearls/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Aunty Pearls/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Aunty Pearls/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Aunty Pearls/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, decorative pearls and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>Cousins Curve</t>
+  </si>
+  <si>
+    <t>Marble Set In Pearl</t>
+  </si>
+  <si>
+    <t>Granny Gardens</t>
+  </si>
+  <si>
+    <t>Marbles</t>
+  </si>
+  <si>
+    <t>Sister Shellies</t>
+  </si>
+  <si>
+    <t>price_1HyxqmHqV6fz8FYoiLfbCqF6</t>
+  </si>
+  <si>
+    <t>Images/products/Sister Shellies/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Sister Shellies/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Sister Shellies/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Sister Shellies/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1HyxqmHqV6fz8FYoLRhrkAEA</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, decorative shell charm and earring hooks.</t>
+  </si>
+  <si>
+    <t>Marble Set In Black</t>
+  </si>
+  <si>
+    <t>Cleopatras</t>
+  </si>
+  <si>
+    <t>Mother Moons</t>
+  </si>
+  <si>
+    <t>price_1Hyxr8HqV6fz8FYouGFsL0Gm</t>
+  </si>
+  <si>
+    <t>Images/products/Mother Moons/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Mother Moons/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Mother Moons/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Mother Moons/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1Hyxr8HqV6fz8FYoTG66zdEc</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, earring studs and backs and decorative brass semi circle and square charms.</t>
+  </si>
+  <si>
+    <t>price_1HyxrjHqV6fz8FYokJBsP6sG</t>
+  </si>
+  <si>
+    <t>Images/products/Cleopatras/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Cleopatras/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Cleopatras/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Cleopatras/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1HyxrjHqV6fz8FYo8X6Y7Zpc</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality black polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, decorative triangular charm and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>Marble Set in Black</t>
+  </si>
+  <si>
+    <t>price_1HyxsDHqV6fz8FYojz9ELyHg</t>
+  </si>
+  <si>
+    <t>Images/products/Granny Gardens/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Granny Gardens/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Granny Gardens/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Granny Gardens/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1HyxsDHqV6fz8FYoQqe7Twfq</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, decorative floral charm and earring hooks.</t>
+  </si>
+  <si>
+    <t>Marble Set in Pearl</t>
+  </si>
+  <si>
+    <t>price_1HyxscHqV6fz8FYoiT91JKsn</t>
+  </si>
+  <si>
+    <t>Images/products/Marbles/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marbles/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marbles/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marbles/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1HyxscHqV6fz8FYoTOmNfPB1</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated earring posts and backs.</t>
+  </si>
+  <si>
+    <t>price_1Hyxt1HqV6fz8FYoovZ0Hc67</t>
+  </si>
+  <si>
+    <t>Images/products/Cousins Curve/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Cousins Curve/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Cousins Curve/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Cousins Curve/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1Hyxt1HqV6fz8FYoSalXxArv</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, chain and clasp.</t>
+  </si>
+  <si>
+    <t>price_1HyxtQHqV6fz8FYo5V1SlacX</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In White/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In White/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In White/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In White/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1HyxtQHqV6fz8FYoZ61yOb1S</t>
+  </si>
+  <si>
+    <t>1/53.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1/2</t>
+  </si>
+  <si>
+    <t>Necklace: Handmade from high-quality translucent polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, chain and clasp.
+Studs: Handmade from high-quality translucent polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated earring posts and backs.</t>
+  </si>
+  <si>
+    <t>price_1HyxtkHqV6fz8FYoyJz0dT11</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In Black/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In Black/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In Black/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Collection In Black/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1HyxtkHqV6fz8FYoUHVYau8N</t>
+  </si>
+  <si>
+    <t>Necklace: Handmade from high-quality black polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated jump rings, chain and clasp.
+Studs: Handmade from high-quality black polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated earring posts and backs.</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, geometric charms and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with gold or silver plated jump rings and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with embossed fern print, connected with silver plated jump rings, circle charms and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, semi-circle charms and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay with a marbled effect, connected with gold or silver plated jump rings and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, circle charms and earring studs and backs.</t>
+  </si>
+  <si>
+    <t>price_1Hz6WDHqV6fz8FYoxYliKlF9</t>
+  </si>
+  <si>
+    <t>price_1Hz6WDHqV6fz8FYok0EULw0H</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1281,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1406,11 +1643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:AC16"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1663,7 @@
     <col min="24" max="24" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1461,102 +1698,102 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
       <c r="R1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="X1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="Y1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="Z1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AA1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="AB1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AC1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="1">
+        <v>73</v>
+      </c>
+      <c r="I2" s="3">
         <v>10.95</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="R2">
         <v>6.5</v>
@@ -1565,81 +1802,78 @@
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="1">
+        <v>22</v>
+      </c>
+      <c r="W2">
         <v>10.5</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y2">
         <v>10.5</v>
       </c>
       <c r="Z2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA2">
         <v>10.95</v>
       </c>
       <c r="AB2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD2">
+        <v>14</v>
+      </c>
+      <c r="AC2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="1">
+        <v>77</v>
+      </c>
+      <c r="I3" s="3">
         <v>10.95</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R3">
         <v>7</v>
@@ -1648,84 +1882,81 @@
         <v>3.5</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="1">
+        <v>25</v>
+      </c>
+      <c r="W3">
         <v>10.5</v>
       </c>
       <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y3">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA3">
         <v>10.95</v>
       </c>
       <c r="AB3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="1">
+        <v>81</v>
+      </c>
+      <c r="I4" s="3">
         <v>10.5</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -1734,84 +1965,78 @@
         <v>4</v>
       </c>
       <c r="T4" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="U4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>103</v>
-      </c>
-      <c r="W4" s="1">
+        <v>68</v>
+      </c>
+      <c r="W4">
         <v>10.5</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" s="1">
+        <v>46</v>
+      </c>
+      <c r="Y4">
         <v>10.5</v>
       </c>
       <c r="Z4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA4" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA4">
         <v>10.95</v>
       </c>
       <c r="AB4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AC4">
         <v>9.9499999999999993</v>
       </c>
-      <c r="AD4">
-        <v>9.9499999999999993</v>
-      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="1">
+        <v>85</v>
+      </c>
+      <c r="I5" s="3">
         <v>10.5</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
         <v>48</v>
       </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -1820,81 +2045,78 @@
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="U5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="1">
+        <v>25</v>
+      </c>
+      <c r="W5">
         <v>10.5</v>
       </c>
       <c r="X5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y5">
         <v>10.5</v>
       </c>
       <c r="Z5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>68</v>
+      </c>
+      <c r="AA5">
         <v>10.5</v>
       </c>
       <c r="AB5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD5">
+        <v>22</v>
+      </c>
+      <c r="AC5">
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="1">
+        <v>89</v>
+      </c>
+      <c r="I6" s="3">
         <v>10.5</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="R6">
         <v>6</v>
@@ -1903,87 +2125,84 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="U6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="1">
+        <v>20</v>
+      </c>
+      <c r="W6">
         <v>10.5</v>
       </c>
       <c r="X6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y6">
         <v>10.95</v>
       </c>
       <c r="Z6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA6">
         <v>9.9499999999999993</v>
       </c>
       <c r="AB6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC6" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC6">
         <v>10.95</v>
       </c>
-      <c r="AD6">
-        <v>10.95</v>
-      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="1">
+        <v>93</v>
+      </c>
+      <c r="I7" s="3">
         <v>10.5</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -1992,78 +2211,75 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="1">
+        <v>23</v>
+      </c>
+      <c r="W7">
         <v>10.5</v>
       </c>
       <c r="X7" t="s">
         <v>8</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>10.5</v>
+      </c>
+      <c r="AB7" t="s">
         <v>12</v>
       </c>
-      <c r="AA7" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>10.95</v>
       </c>
-      <c r="AD7">
-        <v>10.95</v>
-      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="1">
+        <v>97</v>
+      </c>
+      <c r="I8" s="3">
         <v>10.5</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R8">
         <v>6</v>
@@ -2072,81 +2288,78 @@
         <v>2.5</v>
       </c>
       <c r="T8" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="U8" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="1">
+        <v>24</v>
+      </c>
+      <c r="W8">
         <v>10.95</v>
       </c>
       <c r="X8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y8">
         <v>10.5</v>
       </c>
       <c r="Z8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA8">
         <v>10.5</v>
       </c>
       <c r="AB8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC8" s="1">
+        <v>47</v>
+      </c>
+      <c r="AC8">
         <v>9.9499999999999993</v>
       </c>
-      <c r="AD8">
-        <v>9.9499999999999993</v>
-      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="1">
+        <v>101</v>
+      </c>
+      <c r="I9" s="3">
         <v>10.5</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -2155,84 +2368,81 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="U9" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W9" s="1">
+        <v>61</v>
+      </c>
+      <c r="W9">
         <v>10.95</v>
       </c>
       <c r="X9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y9">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA9" s="1">
+        <v>14</v>
+      </c>
+      <c r="AA9">
         <v>10.5</v>
       </c>
       <c r="AB9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC9">
         <v>10.95</v>
       </c>
-      <c r="AD9">
-        <v>10.95</v>
-      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="1">
+        <v>105</v>
+      </c>
+      <c r="I10" s="3">
         <v>9.9499999999999993</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R10">
         <v>6.5</v>
@@ -2241,75 +2451,72 @@
         <v>1.5</v>
       </c>
       <c r="T10" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="U10" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="1">
+        <v>14</v>
+      </c>
+      <c r="W10">
         <v>10.5</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y10" s="1">
+        <v>47</v>
+      </c>
+      <c r="Y10">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA10">
         <v>10.5</v>
       </c>
       <c r="AB10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD10">
+        <v>25</v>
+      </c>
+      <c r="AC10">
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="1">
+        <v>109</v>
+      </c>
+      <c r="I11" s="3">
         <v>10.95</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="R11">
         <v>7</v>
@@ -2318,81 +2525,78 @@
         <v>3.5</v>
       </c>
       <c r="T11" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>16</v>
-      </c>
-      <c r="W11" s="1">
+        <v>12</v>
+      </c>
+      <c r="W11">
         <v>10.95</v>
       </c>
       <c r="X11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y11" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y11">
         <v>10.95</v>
       </c>
       <c r="Z11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA11">
         <v>10.5</v>
       </c>
       <c r="AB11" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11">
         <v>9.9499999999999993</v>
       </c>
-      <c r="AD11">
-        <v>9.9499999999999993</v>
-      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="1">
+        <v>113</v>
+      </c>
+      <c r="I12" s="3">
         <v>9.9499999999999993</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="R12">
         <v>9</v>
@@ -2401,81 +2605,78 @@
         <v>1.5</v>
       </c>
       <c r="T12" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V12" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12">
         <v>9.9499999999999993</v>
       </c>
       <c r="X12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y12">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA12" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA12">
         <v>10.95</v>
       </c>
       <c r="AB12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD12">
+        <v>46</v>
+      </c>
+      <c r="AC12">
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="1">
+        <v>117</v>
+      </c>
+      <c r="I13" s="3">
         <v>10.5</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="O13" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="R13">
         <v>6</v>
@@ -2484,75 +2685,72 @@
         <v>2.5</v>
       </c>
       <c r="T13" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="U13" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" s="1">
+        <v>23</v>
+      </c>
+      <c r="W13">
         <v>10.5</v>
       </c>
       <c r="X13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y13" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y13">
         <v>10.5</v>
       </c>
       <c r="Z13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA13" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA13">
         <v>10.5</v>
       </c>
       <c r="AB13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC13">
         <v>10.95</v>
       </c>
-      <c r="AD13">
-        <v>10.95</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="1">
+        <v>121</v>
+      </c>
+      <c r="I14" s="3">
         <v>10.95</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="R14">
         <v>7.5</v>
@@ -2561,87 +2759,84 @@
         <v>3.5</v>
       </c>
       <c r="T14" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="U14" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V14" t="s">
-        <v>24</v>
-      </c>
-      <c r="W14" s="1">
+        <v>16</v>
+      </c>
+      <c r="W14">
         <v>10.95</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y14" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y14">
         <v>10.95</v>
       </c>
       <c r="Z14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA14">
         <v>10.5</v>
       </c>
       <c r="AB14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD14">
+        <v>10</v>
+      </c>
+      <c r="AC14">
         <v>10.5</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="1">
+        <v>125</v>
+      </c>
+      <c r="I15" s="3">
         <v>10.5</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -2650,40 +2845,37 @@
         <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="1">
+        <v>25</v>
+      </c>
+      <c r="W15">
         <v>10.5</v>
       </c>
       <c r="X15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y15" s="1">
+        <v>46</v>
+      </c>
+      <c r="Y15">
         <v>10.5</v>
       </c>
       <c r="Z15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA15">
         <v>10.95</v>
       </c>
       <c r="AB15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD15">
+        <v>22</v>
+      </c>
+      <c r="AC15">
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2691,46 +2883,46 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="1">
+        <v>130</v>
+      </c>
+      <c r="I16" s="3">
         <v>9.9499999999999993</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="R16">
         <v>9</v>
@@ -2739,37 +2931,718 @@
         <v>1.5</v>
       </c>
       <c r="T16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="U16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W16" s="1">
+        <v>47</v>
+      </c>
+      <c r="W16">
         <v>9.9499999999999993</v>
       </c>
       <c r="X16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y16">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA16" s="1">
+        <v>68</v>
+      </c>
+      <c r="AA16">
         <v>10.5</v>
       </c>
       <c r="AB16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AD16">
-        <v>10.5</v>
+        <v>46</v>
+      </c>
+      <c r="AC16">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12.95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>175</v>
+      </c>
+      <c r="R17">
+        <v>5.7</v>
+      </c>
+      <c r="S17">
+        <v>1.2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>176</v>
+      </c>
+      <c r="U17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" t="s">
+        <v>177</v>
+      </c>
+      <c r="W17">
+        <v>14.95</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17">
+        <v>21.95</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17">
+        <v>13.5</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC17">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="3">
+        <v>13.95</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" t="s">
+        <v>175</v>
+      </c>
+      <c r="R18">
+        <v>7.3</v>
+      </c>
+      <c r="S18">
+        <v>3.5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>188</v>
+      </c>
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" t="s">
+        <v>170</v>
+      </c>
+      <c r="W18">
+        <v>12.95</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18">
+        <v>21.95</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA18">
+        <v>13.95</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC18">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>175</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>198</v>
+      </c>
+      <c r="U19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" t="s">
+        <v>181</v>
+      </c>
+      <c r="W19">
+        <v>13.95</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19">
+        <v>12.95</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA19">
+        <v>21.95</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC19">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="3">
+        <v>13.95</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20">
+        <v>6.2</v>
+      </c>
+      <c r="S20">
+        <v>3.5</v>
+      </c>
+      <c r="T20" t="s">
+        <v>205</v>
+      </c>
+      <c r="U20" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" t="s">
+        <v>191</v>
+      </c>
+      <c r="W20">
+        <v>13.5</v>
+      </c>
+      <c r="X20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y20">
+        <v>13.95</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA20">
+        <v>12.95</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC20">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>175</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s">
+        <v>213</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>190</v>
+      </c>
+      <c r="W21">
+        <v>13.95</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21">
+        <v>13.5</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA21">
+        <v>13.95</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC21">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>175</v>
+      </c>
+      <c r="R22">
+        <v>1.2</v>
+      </c>
+      <c r="S22">
+        <v>1.2</v>
+      </c>
+      <c r="T22" t="s">
+        <v>221</v>
+      </c>
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>179</v>
+      </c>
+      <c r="W22">
+        <v>13.5</v>
+      </c>
+      <c r="X22" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y22">
+        <v>13.95</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA22">
+        <v>13.5</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC22">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23">
+        <v>53.3</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>228</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s">
+        <v>180</v>
+      </c>
+      <c r="W23">
+        <v>8.5</v>
+      </c>
+      <c r="X23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y23">
+        <v>13.5</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA23">
+        <v>21.95</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC23">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" s="2">
+        <v>21.95</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" t="s">
+        <v>175</v>
+      </c>
+      <c r="R24" t="s">
+        <v>235</v>
+      </c>
+      <c r="S24" t="s">
+        <v>236</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s">
+        <v>189</v>
+      </c>
+      <c r="W24">
+        <v>21.95</v>
+      </c>
+      <c r="X24" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y24">
+        <v>14.95</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA24">
+        <v>8.5</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC24">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="2">
+        <v>21.95</v>
+      </c>
+      <c r="J25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" t="s">
+        <v>235</v>
+      </c>
+      <c r="S25" t="s">
+        <v>236</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" t="s">
+        <v>178</v>
+      </c>
+      <c r="W25">
+        <v>21.95</v>
+      </c>
+      <c r="X25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y25">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA25">
+        <v>14.95</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC25">
+        <v>12.95</v>
       </c>
     </row>
   </sheetData>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27660157-B2C5-6440-9B6A-01AD6F51D5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D614F93-89FE-E64D-BB08-47D543417679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>Light Blue w/ White &amp; Dark Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tango Swirls </t>
   </si>
   <si>
     <t>price_1HrhmWHqV6fz8FYooTf0oKnG</t>
@@ -1647,7 +1644,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AC25"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1757,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1781,7 +1778,7 @@
         <v>10.95</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -1840,7 +1837,7 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1861,7 +1858,7 @@
         <v>10.95</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
         <v>62</v>
@@ -1920,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1941,7 +1938,7 @@
         <v>10.5</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -2003,7 +2000,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2024,7 +2021,7 @@
         <v>10.5</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -2083,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2104,7 +2101,7 @@
         <v>10.5</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -2125,7 +2122,7 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U6" t="s">
         <v>43</v>
@@ -2163,7 +2160,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2184,7 +2181,7 @@
         <v>10.5</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
@@ -2211,7 +2208,7 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U7" t="s">
         <v>43</v>
@@ -2249,7 +2246,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2270,7 +2267,7 @@
         <v>10.5</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -2288,7 +2285,7 @@
         <v>2.5</v>
       </c>
       <c r="T8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U8" t="s">
         <v>43</v>
@@ -2326,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2347,7 +2344,7 @@
         <v>10.5</v>
       </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -2368,7 +2365,7 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U9" t="s">
         <v>43</v>
@@ -2406,7 +2403,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2427,7 +2424,7 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -2489,7 +2486,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2510,7 +2507,7 @@
         <v>10.95</v>
       </c>
       <c r="J11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -2563,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2584,7 +2581,7 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -2605,7 +2602,7 @@
         <v>1.5</v>
       </c>
       <c r="T12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U12" t="s">
         <v>43</v>
@@ -2643,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2664,7 +2661,7 @@
         <v>10.5</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
@@ -2685,7 +2682,7 @@
         <v>2.5</v>
       </c>
       <c r="T13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U13" t="s">
         <v>43</v>
@@ -2723,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2744,7 +2741,7 @@
         <v>10.95</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
@@ -2797,7 +2794,7 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2818,7 +2815,7 @@
         <v>10.5</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
         <v>11</v>
@@ -2883,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2904,7 +2901,7 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
         <v>9</v>
@@ -2966,31 +2963,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
         <v>171</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>172</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>173</v>
-      </c>
-      <c r="H17" t="s">
-        <v>174</v>
       </c>
       <c r="I17" s="3">
         <v>12.95</v>
       </c>
       <c r="J17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K17" t="s">
         <v>48</v>
@@ -2999,7 +2996,7 @@
         <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R17">
         <v>5.7</v>
@@ -3008,31 +3005,31 @@
         <v>1.2</v>
       </c>
       <c r="T17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s">
         <v>43</v>
       </c>
       <c r="V17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W17">
         <v>14.95</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y17">
         <v>21.95</v>
       </c>
       <c r="Z17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA17">
         <v>13.5</v>
       </c>
       <c r="AB17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC17">
         <v>8.5</v>
@@ -3043,31 +3040,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
         <v>181</v>
-      </c>
-      <c r="C18" t="s">
-        <v>182</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
         <v>183</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>184</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>185</v>
-      </c>
-      <c r="H18" t="s">
-        <v>186</v>
       </c>
       <c r="I18" s="3">
         <v>13.95</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
         <v>48</v>
@@ -3076,7 +3073,7 @@
         <v>48</v>
       </c>
       <c r="M18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R18">
         <v>7.3</v>
@@ -3085,31 +3082,31 @@
         <v>3.5</v>
       </c>
       <c r="T18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U18" t="s">
         <v>43</v>
       </c>
       <c r="V18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W18">
         <v>12.95</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y18">
         <v>21.95</v>
       </c>
       <c r="Z18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA18">
         <v>13.95</v>
       </c>
       <c r="AB18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC18">
         <v>14.95</v>
@@ -3120,31 +3117,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
         <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" t="s">
         <v>193</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>194</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>195</v>
-      </c>
-      <c r="H19" t="s">
-        <v>196</v>
       </c>
       <c r="I19" s="3">
         <v>13.5</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
         <v>48</v>
@@ -3153,7 +3150,7 @@
         <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -3162,31 +3159,31 @@
         <v>4</v>
       </c>
       <c r="T19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U19" t="s">
         <v>43</v>
       </c>
       <c r="V19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W19">
         <v>13.95</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y19">
         <v>12.95</v>
       </c>
       <c r="Z19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA19">
         <v>21.95</v>
       </c>
       <c r="AB19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC19">
         <v>13.5</v>
@@ -3197,31 +3194,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" t="s">
         <v>200</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>201</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>202</v>
-      </c>
-      <c r="H20" t="s">
-        <v>203</v>
       </c>
       <c r="I20" s="3">
         <v>13.95</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
         <v>48</v>
@@ -3236,31 +3233,31 @@
         <v>3.5</v>
       </c>
       <c r="T20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U20" t="s">
         <v>43</v>
       </c>
       <c r="V20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W20">
         <v>13.5</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y20">
         <v>13.95</v>
       </c>
       <c r="Z20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA20">
         <v>12.95</v>
       </c>
       <c r="AB20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC20">
         <v>21.95</v>
@@ -3271,31 +3268,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" t="s">
         <v>208</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>209</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>210</v>
-      </c>
-      <c r="H21" t="s">
-        <v>211</v>
       </c>
       <c r="I21" s="3">
         <v>13.5</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
         <v>48</v>
@@ -3304,7 +3301,7 @@
         <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R21">
         <v>6</v>
@@ -3313,31 +3310,31 @@
         <v>4</v>
       </c>
       <c r="T21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U21" t="s">
         <v>43</v>
       </c>
       <c r="V21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W21">
         <v>13.95</v>
       </c>
       <c r="X21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y21">
         <v>13.5</v>
       </c>
       <c r="Z21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA21">
         <v>13.95</v>
       </c>
       <c r="AB21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC21">
         <v>21.95</v>
@@ -3348,31 +3345,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" t="s">
         <v>216</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>217</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>218</v>
-      </c>
-      <c r="H22" t="s">
-        <v>219</v>
       </c>
       <c r="I22" s="3">
         <v>8.5</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
         <v>48</v>
@@ -3381,7 +3378,7 @@
         <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R22">
         <v>1.2</v>
@@ -3390,31 +3387,31 @@
         <v>1.2</v>
       </c>
       <c r="T22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U22" t="s">
         <v>43</v>
       </c>
       <c r="V22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W22">
         <v>13.5</v>
       </c>
       <c r="X22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y22">
         <v>13.95</v>
       </c>
       <c r="Z22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA22">
         <v>13.5</v>
       </c>
       <c r="AB22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC22">
         <v>13.95</v>
@@ -3425,31 +3422,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" t="s">
         <v>223</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>224</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>225</v>
-      </c>
-      <c r="H23" t="s">
-        <v>226</v>
       </c>
       <c r="I23" s="3">
         <v>14.95</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
         <v>48</v>
@@ -3458,7 +3455,7 @@
         <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R23">
         <v>53.3</v>
@@ -3467,31 +3464,31 @@
         <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U23" t="s">
         <v>43</v>
       </c>
       <c r="V23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W23">
         <v>8.5</v>
       </c>
       <c r="X23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y23">
         <v>13.5</v>
       </c>
       <c r="Z23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA23">
         <v>21.95</v>
       </c>
       <c r="AB23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC23">
         <v>13.5</v>
@@ -3502,70 +3499,70 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" t="s">
         <v>230</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>231</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>232</v>
-      </c>
-      <c r="H24" t="s">
-        <v>233</v>
       </c>
       <c r="I24" s="2">
         <v>21.95</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
         <v>48</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R24" t="s">
+        <v>234</v>
+      </c>
+      <c r="S24" t="s">
         <v>235</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="U24" t="s">
         <v>43</v>
       </c>
       <c r="V24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W24">
         <v>21.95</v>
       </c>
       <c r="X24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y24">
         <v>14.95</v>
       </c>
       <c r="Z24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA24">
         <v>8.5</v>
       </c>
       <c r="AB24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC24">
         <v>13.95</v>
@@ -3576,31 +3573,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
         <v>239</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>240</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>241</v>
-      </c>
-      <c r="H25" t="s">
-        <v>242</v>
       </c>
       <c r="I25" s="2">
         <v>21.95</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
         <v>48</v>
@@ -3609,37 +3606,37 @@
         <v>48</v>
       </c>
       <c r="R25" t="s">
+        <v>234</v>
+      </c>
+      <c r="S25" t="s">
         <v>235</v>
       </c>
-      <c r="S25" t="s">
-        <v>236</v>
-      </c>
       <c r="T25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U25" t="s">
         <v>43</v>
       </c>
       <c r="V25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W25">
         <v>21.95</v>
       </c>
       <c r="X25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y25">
         <v>8.5</v>
       </c>
       <c r="Z25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA25">
         <v>14.95</v>
       </c>
       <c r="AB25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC25">
         <v>12.95</v>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D614F93-89FE-E64D-BB08-47D543417679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FE65F6-AA08-6A48-ADEC-1D224172E252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="253">
   <si>
     <t>ID</t>
   </si>
@@ -789,6 +789,9 @@
   </si>
   <si>
     <t>price_1Hz6WDHqV6fz8FYok0EULw0H</t>
+  </si>
+  <si>
+    <t>Black &amp; Pearl Set</t>
   </si>
 </sst>
 </file>
@@ -1643,8 +1646,8 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D30" sqref="D30"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3375,10 +3378,7 @@
         <v>48</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="R22">
         <v>1.2</v>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FE65F6-AA08-6A48-ADEC-1D224172E252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95944035-380B-464C-AD21-8FB4654FEC25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N25" sqref="N25"/>
+      <selection pane="topRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3073,10 +3073,10 @@
         <v>48</v>
       </c>
       <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="s">
         <v>48</v>
-      </c>
-      <c r="M18" t="s">
-        <v>174</v>
       </c>
       <c r="R18">
         <v>7.3</v>
@@ -3150,10 +3150,10 @@
         <v>48</v>
       </c>
       <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="s">
         <v>48</v>
-      </c>
-      <c r="M19" t="s">
-        <v>174</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -3301,10 +3301,10 @@
         <v>48</v>
       </c>
       <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="s">
         <v>48</v>
-      </c>
-      <c r="M21" t="s">
-        <v>174</v>
       </c>
       <c r="R21">
         <v>6</v>
@@ -3452,10 +3452,10 @@
         <v>48</v>
       </c>
       <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="s">
         <v>48</v>
-      </c>
-      <c r="M23" t="s">
-        <v>174</v>
       </c>
       <c r="R23">
         <v>53.3</v>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95944035-380B-464C-AD21-8FB4654FEC25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD63CF-8717-DB43-A97D-7D4D1A6D810A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -69,24 +69,9 @@
     <t>beige</t>
   </si>
   <si>
-    <t>Fish Bones</t>
-  </si>
-  <si>
     <t>orange</t>
   </si>
   <si>
-    <t>Shopping Blocks</t>
-  </si>
-  <si>
-    <t>dark green</t>
-  </si>
-  <si>
-    <t>Jelly Pinkies</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>Penny Allsorts</t>
   </si>
   <si>
@@ -291,18 +276,6 @@
     <t>Images/products/Challahs/thumb3.jpeg</t>
   </si>
   <si>
-    <t>Images/products/Shopping Blocks/main.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Shopping Blocks/thumb1.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Shopping Blocks/thumb2.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Shopping Blocks/thumb3.jpeg</t>
-  </si>
-  <si>
     <t>Images/products/N-Dots/main.jpeg</t>
   </si>
   <si>
@@ -351,18 +324,6 @@
     <t>Images/products/Penny Allsorts/thumb3.jpeg</t>
   </si>
   <si>
-    <t>Images/products/Jelly Pinkies/main.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Jelly Pinkies/thumb1.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Jelly Pinkies/thumb2.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Jelly Pinkies/thumb3.jpeg</t>
-  </si>
-  <si>
     <t>Images/products/Beach Pops/main.jpeg</t>
   </si>
   <si>
@@ -387,18 +348,6 @@
     <t>Images/products/Curvy Girls/thumb3.jpeg</t>
   </si>
   <si>
-    <t>Images/products/Fish Bones/main.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Fish Bones/thumb1.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Fish Bones/thumb2.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Fish Bones/thumb3.jpeg</t>
-  </si>
-  <si>
     <t>Images/products/Iced Donuts/main.jpeg</t>
   </si>
   <si>
@@ -438,9 +387,6 @@
     <t>Forest Green</t>
   </si>
   <si>
-    <t>Pinkie</t>
-  </si>
-  <si>
     <t>Lime Green w/ White &amp; Teal</t>
   </si>
   <si>
@@ -474,12 +420,6 @@
     <t>price_1HrhlDHqV6fz8FYoMklTsGoV</t>
   </si>
   <si>
-    <t>price_1HrhlpHqV6fz8FYoBYQAodm5</t>
-  </si>
-  <si>
-    <t>price_1HrhlpHqV6fz8FYoqSB6FGIb</t>
-  </si>
-  <si>
     <t>price_1HrhmKHqV6fz8FYozUf4EuqP</t>
   </si>
   <si>
@@ -504,15 +444,6 @@
     <t>price_1Hrhm8HqV6fz8FYovsETsYCO</t>
   </si>
   <si>
-    <t>price_1Hrhm1HqV6fz8FYoEOUYFKyu</t>
-  </si>
-  <si>
-    <t>price_1Hrhm1HqV6fz8FYoFlO6zw4t</t>
-  </si>
-  <si>
-    <t>price_1HrhlJHqV6fz8FYo3dVkbLvK</t>
-  </si>
-  <si>
     <t>price_1HrhlJHqV6fz8FYopi1gSHyi</t>
   </si>
   <si>
@@ -522,21 +453,12 @@
     <t>price_1HrhlRHqV6fz8FYoOLvcAIJP</t>
   </si>
   <si>
-    <t>price_1HrhljHqV6fz8FYo7PoyO4Zp</t>
-  </si>
-  <si>
-    <t>price_1HrhljHqV6fz8FYoqxxqRgTM</t>
-  </si>
-  <si>
     <t>price_1Hrhk3HqV6fz8FYobbvajU66</t>
   </si>
   <si>
     <t>price_1Hrhk3HqV6fz8FYo2Zvp3zFq</t>
   </si>
   <si>
-    <t>price_1HrhlNHqV6fz8FYoKp4t6epi</t>
-  </si>
-  <si>
     <t>price_1HrhlNHqV6fz8FYoVm7Cb76O</t>
   </si>
   <si>
@@ -606,9 +528,6 @@
     <t>Mother Moons</t>
   </si>
   <si>
-    <t>price_1Hyxr8HqV6fz8FYouGFsL0Gm</t>
-  </si>
-  <si>
     <t>Images/products/Mother Moons/main.jpeg</t>
   </si>
   <si>
@@ -651,9 +570,6 @@
     <t>Marble Set in Black</t>
   </si>
   <si>
-    <t>price_1HyxsDHqV6fz8FYojz9ELyHg</t>
-  </si>
-  <si>
     <t>Images/products/Granny Gardens/main.jpeg</t>
   </si>
   <si>
@@ -696,9 +612,6 @@
     <t>Handmade from high-quality polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated earring posts and backs.</t>
   </si>
   <si>
-    <t>price_1Hyxt1HqV6fz8FYoovZ0Hc67</t>
-  </si>
-  <si>
     <t>Images/products/Cousins Curve/main.jpeg</t>
   </si>
   <si>
@@ -721,15 +634,6 @@
   </si>
   <si>
     <t>Images/products/Collection In White/main.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Collection In White/thumb1.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Collection In White/thumb2.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Collection In White/thumb3.jpeg</t>
   </si>
   <si>
     <t>price_1HyxtQHqV6fz8FYoZ61yOb1S</t>
@@ -751,15 +655,6 @@
     <t>Images/products/Collection In Black/main.jpeg</t>
   </si>
   <si>
-    <t>Images/products/Collection In Black/thumb1.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Collection In Black/thumb2.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Collection In Black/thumb3.jpeg</t>
-  </si>
-  <si>
     <t>price_1HyxtkHqV6fz8FYoUHVYau8N</t>
   </si>
   <si>
@@ -767,9 +662,6 @@
 Studs: Handmade from high-quality black polymer clay with Mica powder and alcohol inks for a marble effect, connected with gold plated earring posts and backs.</t>
   </si>
   <si>
-    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, geometric charms and earring studs and backs.</t>
-  </si>
-  <si>
     <t>Handmade from high-quality polymer clay, connected with gold or silver plated jump rings and earring studs and backs.</t>
   </si>
   <si>
@@ -792,6 +684,39 @@
   </si>
   <si>
     <t>Black &amp; Pearl Set</t>
+  </si>
+  <si>
+    <t>price_1I5HgVHqV6fz8FYoGpVdLnPL</t>
+  </si>
+  <si>
+    <t>price_1I5HfjHqV6fz8FYoaIlS9VDG</t>
+  </si>
+  <si>
+    <t>price_1I5HeHHqV6fz8FYo0FylIHhv</t>
+  </si>
+  <si>
+    <t>price_1I5HcvHqV6fz8FYoYQCkFwsM</t>
+  </si>
+  <si>
+    <t>price_1I5Hb5HqV6fz8FYo1IwSMx0q</t>
+  </si>
+  <si>
+    <t>Images/products/Marble Set In Pearl/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marble Set In Pearl/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marble Set In Pearl/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marble Set In Black/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marble Set In Black/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Marble Set In Black/thumb3.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1571,8 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M31" sqref="M31"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1698,58 +1623,58 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
         <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -1757,79 +1682,79 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I2" s="3">
         <v>10.95</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
         <v>6.5</v>
       </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W2">
         <v>10.5</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Y2">
         <v>10.5</v>
       </c>
       <c r="Z2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AA2">
+        <v>10.5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2">
         <v>10.95</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2">
-        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -1837,73 +1762,73 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3">
         <v>10.95</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R3">
+        <v>3.5</v>
+      </c>
+      <c r="S3">
         <v>7</v>
       </c>
-      <c r="S3">
-        <v>3.5</v>
-      </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W3">
         <v>10.5</v>
       </c>
       <c r="X3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y3">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AA3">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
       <c r="AB3" t="s">
         <v>10</v>
@@ -1917,46 +1842,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>10.5</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -1965,34 +1890,34 @@
         <v>4</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W4">
         <v>10.5</v>
       </c>
       <c r="X4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Y4">
         <v>10.5</v>
       </c>
       <c r="Z4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AA4">
         <v>10.95</v>
       </c>
       <c r="AB4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AC4">
-        <v>9.9499999999999993</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2000,43 +1925,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I5" s="3">
         <v>10.5</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -2045,13 +1970,13 @@
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W5">
         <v>10.5</v>
@@ -2063,13 +1988,13 @@
         <v>10.5</v>
       </c>
       <c r="Z5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AA5">
         <v>10.5</v>
       </c>
       <c r="AB5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AC5">
         <v>10.5</v>
@@ -2077,79 +2002,85 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I6" s="3">
         <v>10.5</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W6">
         <v>10.5</v>
       </c>
       <c r="X6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Y6">
-        <v>10.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Z6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AA6">
-        <v>9.9499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="AB6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC6">
         <v>10.95</v>
@@ -2157,325 +2088,319 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I7" s="3">
         <v>10.5</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7">
+        <v>2.5</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7" t="s">
+        <v>210</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="W7">
+        <v>10.95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7">
+        <v>10.5</v>
+      </c>
+      <c r="AB7" t="s">
         <v>42</v>
       </c>
-      <c r="O7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>2.5</v>
-      </c>
-      <c r="T7" t="s">
-        <v>245</v>
-      </c>
-      <c r="U7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7">
-        <v>10.5</v>
-      </c>
-      <c r="X7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y7">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA7">
-        <v>10.5</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>12</v>
-      </c>
       <c r="AC7">
-        <v>10.95</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I8" s="3">
         <v>10.5</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>116</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="S8">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="W8">
         <v>10.95</v>
       </c>
       <c r="X8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y8">
-        <v>10.5</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="Z8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA8">
         <v>10.5</v>
       </c>
       <c r="AB8" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="AC8">
-        <v>9.9499999999999993</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3">
-        <v>10.5</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="S9">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="T9" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W9">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
       <c r="X9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Y9">
-        <v>9.9499999999999993</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Z9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA9">
         <v>10.5</v>
       </c>
       <c r="AB9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC9">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>9.9499999999999993</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R10">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="S10">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W10">
-        <v>10.5</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="X10" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="Y10">
         <v>9.9499999999999993</v>
       </c>
       <c r="Z10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA10">
-        <v>10.5</v>
+        <v>10.95</v>
       </c>
       <c r="AB10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AC10">
         <v>10.5</v>
@@ -2483,153 +2408,165 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I11" s="3">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11">
+        <v>2.5</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11">
+        <v>10.5</v>
+      </c>
+      <c r="X11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>3.5</v>
-      </c>
-      <c r="T11" t="s">
-        <v>64</v>
-      </c>
-      <c r="U11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11">
-        <v>10.95</v>
-      </c>
-      <c r="X11" t="s">
-        <v>61</v>
-      </c>
       <c r="Y11">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA11">
         <v>10.5</v>
       </c>
       <c r="AB11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC11">
-        <v>9.9499999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I12" s="3">
-        <v>9.9499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>119</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>109</v>
+      </c>
+      <c r="P12" t="s">
+        <v>114</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="W12">
-        <v>9.9499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="X12" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Y12">
-        <v>9.9499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="AA12">
         <v>10.95</v>
       </c>
       <c r="AB12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="AC12">
         <v>10.5</v>
@@ -2637,1010 +2574,781 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
         <v>115</v>
       </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" t="s">
-        <v>132</v>
+      <c r="P13" t="s">
+        <v>52</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="T13" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="W13">
-        <v>10.5</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="X13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Y13">
-        <v>10.5</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="Z13" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA13">
         <v>10.5</v>
       </c>
       <c r="AB13" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AC13">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I14" s="3">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>148</v>
       </c>
       <c r="R14">
+        <v>1.2</v>
+      </c>
+      <c r="S14">
+        <v>5.7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>149</v>
+      </c>
+      <c r="U14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s">
+        <v>150</v>
+      </c>
+      <c r="W14">
+        <v>12.95</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14">
+        <v>17.95</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA14">
+        <v>11.25</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC14">
         <v>7.5</v>
-      </c>
-      <c r="S14">
-        <v>3.5</v>
-      </c>
-      <c r="T14" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W14">
-        <v>10.95</v>
-      </c>
-      <c r="X14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14">
-        <v>10.95</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA14">
-        <v>10.5</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC14">
-        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="I15" s="3">
-        <v>10.5</v>
+        <v>11.95</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="M15" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
-      <c r="O15" t="s">
-        <v>126</v>
-      </c>
-      <c r="P15" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="U15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="W15">
         <v>10.5</v>
       </c>
       <c r="X15" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="Y15">
-        <v>10.5</v>
+        <v>17.95</v>
       </c>
       <c r="Z15" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="AA15">
-        <v>10.95</v>
+        <v>11.95</v>
       </c>
       <c r="AB15" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="AC15">
-        <v>10.5</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="I16" s="3">
-        <v>9.9499999999999993</v>
+        <v>11.25</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>132</v>
-      </c>
-      <c r="N16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="R16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="U16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="W16">
-        <v>9.9499999999999993</v>
+        <v>11.95</v>
       </c>
       <c r="X16" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="Y16">
-        <v>9.9499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="AA16">
-        <v>10.5</v>
+        <v>17.95</v>
       </c>
       <c r="AB16" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="AC16">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I17" s="3">
-        <v>12.95</v>
+        <v>11.95</v>
       </c>
       <c r="J17" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="R17">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="S17">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="T17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="W17">
-        <v>14.95</v>
+        <v>11.25</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="Y17">
-        <v>21.95</v>
+        <v>10.95</v>
       </c>
       <c r="Z17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA17">
+        <v>10.5</v>
+      </c>
+      <c r="AB17" t="s">
         <v>178</v>
       </c>
-      <c r="AA17">
-        <v>13.5</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>179</v>
-      </c>
       <c r="AC17">
-        <v>8.5</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" t="s">
         <v>182</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" s="3">
+        <v>11.25</v>
+      </c>
+      <c r="J18" t="s">
         <v>183</v>
       </c>
-      <c r="G18" t="s">
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18" t="s">
         <v>184</v>
       </c>
-      <c r="H18" t="s">
+      <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s">
+        <v>163</v>
+      </c>
+      <c r="W18">
+        <v>11.95</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18">
+        <v>11.25</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA18">
+        <v>11.95</v>
+      </c>
+      <c r="AB18" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="3">
-        <v>13.95</v>
-      </c>
-      <c r="J18" t="s">
-        <v>186</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>174</v>
-      </c>
-      <c r="M18" t="s">
-        <v>48</v>
-      </c>
-      <c r="R18">
-        <v>7.3</v>
-      </c>
-      <c r="S18">
-        <v>3.5</v>
-      </c>
-      <c r="T18" t="s">
-        <v>187</v>
-      </c>
-      <c r="U18" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" t="s">
-        <v>169</v>
-      </c>
-      <c r="W18">
-        <v>12.95</v>
-      </c>
-      <c r="X18" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y18">
-        <v>21.95</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA18">
-        <v>13.95</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>176</v>
-      </c>
       <c r="AC18">
-        <v>14.95</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>216</v>
+      </c>
+      <c r="R19">
+        <v>1.2</v>
+      </c>
+      <c r="S19">
+        <v>1.2</v>
+      </c>
+      <c r="T19" t="s">
         <v>192</v>
       </c>
-      <c r="F19" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R19">
-        <v>5</v>
-      </c>
-      <c r="S19">
-        <v>4</v>
-      </c>
-      <c r="T19" t="s">
-        <v>197</v>
-      </c>
       <c r="U19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="W19">
-        <v>13.95</v>
+        <v>11.25</v>
       </c>
       <c r="X19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Y19">
-        <v>12.95</v>
+        <v>11.95</v>
       </c>
       <c r="Z19" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AA19">
-        <v>21.95</v>
+        <v>11.25</v>
       </c>
       <c r="AB19" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="AC19">
-        <v>13.5</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I20" s="3">
-        <v>13.95</v>
+        <v>12.95</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>148</v>
       </c>
       <c r="R20">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>3.5</v>
+        <v>53.3</v>
       </c>
       <c r="T20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="W20">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="Y20">
-        <v>13.95</v>
+        <v>11.25</v>
       </c>
       <c r="Z20" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AA20">
-        <v>12.95</v>
+        <v>17.95</v>
       </c>
       <c r="AB20" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="AC20">
-        <v>21.95</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="I21" s="3">
-        <v>13.5</v>
+        <v>17.95</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
-      </c>
-      <c r="M21" t="s">
-        <v>48</v>
-      </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21">
-        <v>4</v>
-      </c>
-      <c r="T21" t="s">
-        <v>212</v>
+        <v>148</v>
+      </c>
+      <c r="R21" t="s">
+        <v>203</v>
+      </c>
+      <c r="S21" t="s">
+        <v>202</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="U21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="W21">
-        <v>13.95</v>
+        <v>17.95</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="Y21">
-        <v>13.5</v>
+        <v>12.95</v>
       </c>
       <c r="Z21" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="AA21">
-        <v>13.95</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="AC21">
-        <v>21.95</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I22" s="3">
-        <v>8.5</v>
+        <v>17.95</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L22" t="s">
-        <v>252</v>
-      </c>
-      <c r="R22">
-        <v>1.2</v>
-      </c>
-      <c r="S22">
-        <v>1.2</v>
-      </c>
-      <c r="T22" t="s">
-        <v>220</v>
+        <v>43</v>
+      </c>
+      <c r="R22" t="s">
+        <v>203</v>
+      </c>
+      <c r="S22" t="s">
+        <v>202</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="U22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="W22">
-        <v>13.5</v>
+        <v>17.95</v>
       </c>
       <c r="X22" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="Y22">
-        <v>13.95</v>
+        <v>7.5</v>
       </c>
       <c r="Z22" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AA22">
-        <v>13.5</v>
+        <v>12.95</v>
       </c>
       <c r="AB22" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="AC22">
-        <v>13.95</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" t="s">
-        <v>224</v>
-      </c>
-      <c r="H23" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="J23" t="s">
-        <v>226</v>
-      </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>174</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R23">
-        <v>53.3</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23" t="s">
-        <v>227</v>
-      </c>
-      <c r="U23" t="s">
-        <v>43</v>
-      </c>
-      <c r="V23" t="s">
-        <v>179</v>
-      </c>
-      <c r="W23">
-        <v>8.5</v>
-      </c>
-      <c r="X23" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y23">
-        <v>13.5</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA23">
-        <v>21.95</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC23">
-        <v>13.5</v>
-      </c>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" s="2">
-        <v>21.95</v>
-      </c>
-      <c r="J24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" t="s">
-        <v>174</v>
-      </c>
-      <c r="R24" t="s">
-        <v>234</v>
-      </c>
-      <c r="S24" t="s">
-        <v>235</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="U24" t="s">
-        <v>43</v>
-      </c>
-      <c r="V24" t="s">
-        <v>188</v>
-      </c>
-      <c r="W24">
-        <v>21.95</v>
-      </c>
-      <c r="X24" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y24">
-        <v>14.95</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA24">
-        <v>8.5</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC24">
-        <v>13.95</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H25" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="2">
-        <v>21.95</v>
-      </c>
-      <c r="J25" t="s">
-        <v>242</v>
-      </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
-      <c r="R25" t="s">
-        <v>234</v>
-      </c>
-      <c r="S25" t="s">
-        <v>235</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V25" t="s">
-        <v>177</v>
-      </c>
-      <c r="W25">
-        <v>21.95</v>
-      </c>
-      <c r="X25" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y25">
-        <v>8.5</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA25">
-        <v>14.95</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC25">
-        <v>12.95</v>
-      </c>
+      <c r="I25" s="2"/>
+      <c r="T25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD63CF-8717-DB43-A97D-7D4D1A6D810A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9DE90-F199-9447-A279-AD8DFEA2466F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="400">
   <si>
     <t>ID</t>
   </si>
@@ -717,13 +717,529 @@
   </si>
   <si>
     <t>Images/products/Marble Set In Black/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>Atlantic Sailors</t>
+  </si>
+  <si>
+    <t>price_1I6IHYHqV6fz8FYoHijSBPh3</t>
+  </si>
+  <si>
+    <t>Images/products/Atlantic Sailors/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Atlantic Sailors/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Atlantic Sailors/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Atlantic Sailors/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IHYHqV6fz8FYoy1U7EfRW</t>
+  </si>
+  <si>
+    <t>Mint &amp; Teal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handmade from high-quality polymer clay, connected with silver plated jump rings, studs and earring backs. </t>
+  </si>
+  <si>
+    <t>Wine Triples</t>
+  </si>
+  <si>
+    <t>Wine Knots</t>
+  </si>
+  <si>
+    <t>Turkey Delights</t>
+  </si>
+  <si>
+    <t>Belly Boppers</t>
+  </si>
+  <si>
+    <t>price_1I6IIyHqV6fz8FYoki1Sw7Fg</t>
+  </si>
+  <si>
+    <t>Images/products/Belly Boppers/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Belly Boppers/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Belly Boppers/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Belly Boppers/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IIyHqV6fz8FYoUXP0zyAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handmade from high-quality polymer clay, connected with gold plated jump rings, semi circle charm, studs and earring backs. </t>
+  </si>
+  <si>
+    <t>Blue Moons</t>
+  </si>
+  <si>
+    <t>price_1I6IKLHqV6fz8FYoDENF86Zb</t>
+  </si>
+  <si>
+    <t>Images/products/Blue Moons/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Blue Moons/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Blue Moons/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Blue Moons/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IKLHqV6fz8FYoPN3OCKqj</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with decorative brass semi circle charm, gold plated jump rings, and hooks.</t>
+  </si>
+  <si>
+    <t>Caramel Desserts</t>
+  </si>
+  <si>
+    <t>price_1I6ILXHqV6fz8FYo6IIYeb0p</t>
+  </si>
+  <si>
+    <t>Images/products/Caramel Desserts/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Caramel Desserts/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Caramel Desserts/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Caramel Desserts/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6ILXHqV6fz8FYogGUySxcC</t>
+  </si>
+  <si>
+    <t>Marbled Caramel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handmade from high-quality marbled polymer clay, connected with decorative gold plated circle charm, jump rings, studs and earring backs. </t>
+  </si>
+  <si>
+    <t>Flower Powers</t>
+  </si>
+  <si>
+    <t>price_1I6IN8HqV6fz8FYorFFP2JsZ</t>
+  </si>
+  <si>
+    <t>Images/products/Flower Powers/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Flower Powers/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Flower Powers/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Flower Powers/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IN8HqV6fz8FYorbsxK89s</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, earring posts and backs.</t>
+  </si>
+  <si>
+    <t>Icebergs</t>
+  </si>
+  <si>
+    <t>price_1I6IR8HqV6fz8FYouhFBiSKQ</t>
+  </si>
+  <si>
+    <t>Images/products/Icebergs/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Icebergs/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Icebergs/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Icebergs/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IR8HqV6fz8FYoFKx7vgTb</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with silver plated jump rings, and earring hooks.</t>
+  </si>
+  <si>
+    <t>Knots &amp; Dots Pack</t>
+  </si>
+  <si>
+    <t>price_1I6ISpHqV6fz8FYoO0SA9UOv</t>
+  </si>
+  <si>
+    <t>Images/products/Knots &amp; Dots Pack/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Knots &amp; Dots Pack/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Knots &amp; Dots Pack/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Knots &amp; Dots Pack/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6ISpHqV6fz8FYoW8rAQkNQ</t>
+  </si>
+  <si>
+    <t>Beige</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay. Earrings connected with gold plated gold plated posts and backs. Necklace connected with gold plated jump rings, chain and clasp</t>
+  </si>
+  <si>
+    <t>Lazy Beige</t>
+  </si>
+  <si>
+    <t>price_1I6IV5HqV6fz8FYolEIIsFVN</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Beige/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Beige/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Beige/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Beige/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IV5HqV6fz8FYos0l5ZVTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handmade from high-quality polymer clay, connected with decorative gold plated circle charm, jump rings, and hooks.  </t>
+  </si>
+  <si>
+    <t>Lazy Grey</t>
+  </si>
+  <si>
+    <t>price_1I6IW7HqV6fz8FYodfC8hBri</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Grey/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Grey/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Grey/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lazy Grey/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IW7HqV6fz8FYowD1Nl11q</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with decorative silver plated circle charm, jump rings, and hooks.</t>
+  </si>
+  <si>
+    <t>Lime Lights</t>
+  </si>
+  <si>
+    <t>price_1I6IXlHqV6fz8FYouKuIMIOy</t>
+  </si>
+  <si>
+    <t>Images/products/Lime Lights/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lime Lights/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lime Lights/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Lime Lights/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IXlHqV6fz8FYopjRjrdhx</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with gold plated jump rings, and hooks.</t>
+  </si>
+  <si>
+    <t>Low Tides</t>
+  </si>
+  <si>
+    <t>price_1I6IZ8HqV6fz8FYoAKqWUlQi</t>
+  </si>
+  <si>
+    <t>Images/products/Low Tides/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Low Tides/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Low Tides/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Low Tides/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IZ8HqV6fz8FYoj1aBWGpi</t>
+  </si>
+  <si>
+    <t>Marbled Grey</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with silver plated jump rings, and hooks.</t>
+  </si>
+  <si>
+    <t>price_1I6IaHHqV6fz8FYo3c75p8Yk</t>
+  </si>
+  <si>
+    <t>Images/products/Wine-Bows/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine-Bows/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine-Bows/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine-Bows/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IaHHqV6fz8FYojumJXxKx</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Rainbow Hoops</t>
+  </si>
+  <si>
+    <t>price_1I6IbrHqV6fz8FYoOWwul1sM</t>
+  </si>
+  <si>
+    <t>Images/products/Rainbow Hoops/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Rainbow Hoops/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Rainbow Hoops/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Rainbow Hoops/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IbrHqV6fz8FYoKqJeNs2K</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with decorative gold plated hoop charms, jump rings, and hooks.</t>
+  </si>
+  <si>
+    <t>price_1I6Id6HqV6fz8FYo16UYszhK</t>
+  </si>
+  <si>
+    <t>price_1I6Id6HqV6fz8FYoZX4fzt5R</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with silver plated jump rings, posts and backs.</t>
+  </si>
+  <si>
+    <t>Sand Timers</t>
+  </si>
+  <si>
+    <t>price_1I6IetHqV6fz8FYoPklBzwAp</t>
+  </si>
+  <si>
+    <t>Images/products/Sand Timers/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Sand Timers/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Sand Timers/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Sand Timers/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IetHqV6fz8FYo0LQsoxJ7</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay, connected with decorative gold plated leaf charms, jump rings, and hooks.</t>
+  </si>
+  <si>
+    <t>Teal-a-Turners</t>
+  </si>
+  <si>
+    <t>price_1I6IgEHqV6fz8FYogLdDQaqN</t>
+  </si>
+  <si>
+    <t>Images/products/Teal-a-Turners/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Teal-a-Turners/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Teal-a-Turners/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Teal-a-Turners/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IgEHqV6fz8FYoVHjnUQ52</t>
+  </si>
+  <si>
+    <t>Textured Triples</t>
+  </si>
+  <si>
+    <t>price_1I6IhKHqV6fz8FYoTwAvBRqN</t>
+  </si>
+  <si>
+    <t>Images/products/Textured Triples/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Textured Triples/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Textured Triples/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Textured Triples/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IhKHqV6fz8FYoxl8D8Biu</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality polymer clay decorated with textured effects, connected with silver plated jump rings, and hooks.</t>
+  </si>
+  <si>
+    <t>Teal-a Turners</t>
+  </si>
+  <si>
+    <t>price_1I6Ii6HqV6fz8FYohKenyW3v</t>
+  </si>
+  <si>
+    <t>Images/products/Turkey Delights/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Turkey Delights/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Turkey Delights/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Turkey Delights/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6Ii6HqV6fz8FYoUOXD4vfe</t>
+  </si>
+  <si>
+    <t>Marbled Black</t>
+  </si>
+  <si>
+    <t>Handmade from high-quality marbled polymer clay, connected with decorative silver plated circle charm, jump rings and hooks.</t>
+  </si>
+  <si>
+    <t>Wavy Babies</t>
+  </si>
+  <si>
+    <t>price_1I6IjEHqV6fz8FYoOF42bz9n</t>
+  </si>
+  <si>
+    <t>Images/products/Wavey Babies/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wavey Babies/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wavey Babies/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wavey Babies/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IjEHqV6fz8FYoQW82hGGb</t>
+  </si>
+  <si>
+    <t>Beige &amp; White</t>
+  </si>
+  <si>
+    <t>price_1I6IkCHqV6fz8FYo4YesaZIm</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Knots/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Knots/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Knots/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Knots/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IkCHqV6fz8FYoGAqKPE4i</t>
+  </si>
+  <si>
+    <t>price_1I6IlSHqV6fz8FYohzMpdCfh</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Triples/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Triples/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Triples/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wine Triples/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>price_1I6IlSHqV6fz8FYoKk8oFAR6</t>
+  </si>
+  <si>
+    <t>Wine-Bows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockabyes </t>
+  </si>
+  <si>
+    <t>Images/products/Rockabyes/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Rockabyes/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Rockabyes/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Rockabyes/thumb3.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -860,6 +1376,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1206,13 +1729,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1568,11 +2094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AC22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,7 +2108,7 @@
     <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.1640625" customWidth="1"/>
     <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.6640625" customWidth="1"/>
+    <col min="20" max="20" width="181.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="99.83203125" customWidth="1"/>
     <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -3265,7 +3791,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>24</v>
       </c>
@@ -3340,15 +3866,1561 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="I23" s="3"/>
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J23" t="s">
+        <v>234</v>
+      </c>
+      <c r="K23" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23" t="s">
+        <v>236</v>
+      </c>
+      <c r="U23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s">
+        <v>237</v>
+      </c>
+      <c r="W23">
+        <v>9.25</v>
+      </c>
+      <c r="X23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y23">
+        <v>7.95</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA23">
+        <v>7.25</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC23">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="24" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="2"/>
-      <c r="T24" s="1"/>
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>246</v>
+      </c>
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>5.5</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U24" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s">
+        <v>228</v>
+      </c>
+      <c r="W24">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="X24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y24">
+        <v>9.25</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA24">
+        <v>7.95</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC24">
+        <v>7.25</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I25" s="2"/>
-      <c r="T25" s="1"/>
+    <row r="25" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="J25" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="U25" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" t="s">
+        <v>240</v>
+      </c>
+      <c r="W25">
+        <v>10.5</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA25">
+        <v>9.25</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC25">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26" t="s">
+        <v>261</v>
+      </c>
+      <c r="I26">
+        <v>10.95</v>
+      </c>
+      <c r="J26" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>7.5</v>
+      </c>
+      <c r="T26" t="s">
+        <v>264</v>
+      </c>
+      <c r="U26" t="s">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s">
+        <v>248</v>
+      </c>
+      <c r="W26">
+        <v>6.95</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26">
+        <v>10.5</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA26">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC26">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27">
+        <v>8.5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R27">
+        <v>2.5</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s">
+        <v>272</v>
+      </c>
+      <c r="U27" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s">
+        <v>256</v>
+      </c>
+      <c r="W27">
+        <v>10.95</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27">
+        <v>6.95</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA27">
+        <v>10.5</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC27">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28">
+        <v>7.25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>279</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>280</v>
+      </c>
+      <c r="U28" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" t="s">
+        <v>265</v>
+      </c>
+      <c r="W28">
+        <v>8.5</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28">
+        <v>10.95</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA28">
+        <v>6.95</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC28">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" t="s">
+        <v>286</v>
+      </c>
+      <c r="I29">
+        <v>13.25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R29" s="4">
+        <v>23377</v>
+      </c>
+      <c r="S29" s="5">
+        <v>44317</v>
+      </c>
+      <c r="T29" t="s">
+        <v>289</v>
+      </c>
+      <c r="U29" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s">
+        <v>273</v>
+      </c>
+      <c r="W29">
+        <v>7.25</v>
+      </c>
+      <c r="X29" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y29">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA29">
+        <v>10.95</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC29">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" t="s">
+        <v>294</v>
+      </c>
+      <c r="H30" t="s">
+        <v>295</v>
+      </c>
+      <c r="I30">
+        <v>10.95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>296</v>
+      </c>
+      <c r="K30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30" t="s">
+        <v>297</v>
+      </c>
+      <c r="U30" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" t="s">
+        <v>281</v>
+      </c>
+      <c r="W30">
+        <v>13.25</v>
+      </c>
+      <c r="X30" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y30">
+        <v>7.25</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA30">
+        <v>8.5</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC30">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" t="s">
+        <v>302</v>
+      </c>
+      <c r="H31" t="s">
+        <v>303</v>
+      </c>
+      <c r="I31">
+        <v>10.5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>304</v>
+      </c>
+      <c r="K31" t="s">
+        <v>305</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31" t="s">
+        <v>306</v>
+      </c>
+      <c r="U31" t="s">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s">
+        <v>290</v>
+      </c>
+      <c r="W31">
+        <v>10.95</v>
+      </c>
+      <c r="X31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y31">
+        <v>13.25</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA31">
+        <v>7.25</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC31">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" t="s">
+        <v>311</v>
+      </c>
+      <c r="H32" t="s">
+        <v>312</v>
+      </c>
+      <c r="I32">
+        <v>7.95</v>
+      </c>
+      <c r="J32" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32">
+        <v>2.5</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32" t="s">
+        <v>314</v>
+      </c>
+      <c r="U32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s">
+        <v>298</v>
+      </c>
+      <c r="W32">
+        <v>10.5</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32">
+        <v>10.95</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA32">
+        <v>13.25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC32">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" t="s">
+        <v>319</v>
+      </c>
+      <c r="H33" t="s">
+        <v>320</v>
+      </c>
+      <c r="I33">
+        <v>7.25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="R33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33" t="s">
+        <v>323</v>
+      </c>
+      <c r="U33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s">
+        <v>307</v>
+      </c>
+      <c r="W33">
+        <v>7.95</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y33">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA33">
+        <v>10.95</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC33">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" t="s">
+        <v>327</v>
+      </c>
+      <c r="H34" t="s">
+        <v>328</v>
+      </c>
+      <c r="I34">
+        <v>10.5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="R34">
+        <v>2.5</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34" t="s">
+        <v>314</v>
+      </c>
+      <c r="U34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s">
+        <v>315</v>
+      </c>
+      <c r="W34">
+        <v>7.25</v>
+      </c>
+      <c r="X34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y34">
+        <v>7.95</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA34">
+        <v>10.5</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC34">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" t="s">
+        <v>335</v>
+      </c>
+      <c r="H35" t="s">
+        <v>336</v>
+      </c>
+      <c r="I35">
+        <v>10.95</v>
+      </c>
+      <c r="J35" t="s">
+        <v>337</v>
+      </c>
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" t="s">
+        <v>330</v>
+      </c>
+      <c r="R35">
+        <v>4.5</v>
+      </c>
+      <c r="S35">
+        <v>6.5</v>
+      </c>
+      <c r="T35" t="s">
+        <v>338</v>
+      </c>
+      <c r="U35" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s">
+        <v>394</v>
+      </c>
+      <c r="W35">
+        <v>10.5</v>
+      </c>
+      <c r="X35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y35">
+        <v>7.25</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA35">
+        <v>7.95</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC35">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>396</v>
+      </c>
+      <c r="F36" t="s">
+        <v>397</v>
+      </c>
+      <c r="G36" t="s">
+        <v>398</v>
+      </c>
+      <c r="H36" t="s">
+        <v>399</v>
+      </c>
+      <c r="I36">
+        <v>10.25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="R36">
+        <v>3.5</v>
+      </c>
+      <c r="S36">
+        <v>5.5</v>
+      </c>
+      <c r="T36" t="s">
+        <v>341</v>
+      </c>
+      <c r="U36" t="s">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s">
+        <v>331</v>
+      </c>
+      <c r="W36">
+        <v>10.95</v>
+      </c>
+      <c r="X36" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y36">
+        <v>10.5</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA36">
+        <v>7.25</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC36">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" t="s">
+        <v>346</v>
+      </c>
+      <c r="H37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I37">
+        <v>10.5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R37">
+        <v>3.5</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37" t="s">
+        <v>349</v>
+      </c>
+      <c r="U37" t="s">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s">
+        <v>395</v>
+      </c>
+      <c r="W37">
+        <v>10.25</v>
+      </c>
+      <c r="X37" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y37">
+        <v>10.95</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA37">
+        <v>10.5</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC37">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>350</v>
+      </c>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" t="s">
+        <v>354</v>
+      </c>
+      <c r="H38" t="s">
+        <v>355</v>
+      </c>
+      <c r="I38">
+        <v>10.5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>356</v>
+      </c>
+      <c r="K38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="R38">
+        <v>3.5</v>
+      </c>
+      <c r="S38">
+        <v>6.7</v>
+      </c>
+      <c r="T38" t="s">
+        <v>341</v>
+      </c>
+      <c r="U38" t="s">
+        <v>38</v>
+      </c>
+      <c r="V38" t="s">
+        <v>342</v>
+      </c>
+      <c r="W38">
+        <v>10.5</v>
+      </c>
+      <c r="X38" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y38">
+        <v>10.25</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA38">
+        <v>10.95</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>359</v>
+      </c>
+      <c r="F39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H39" t="s">
+        <v>362</v>
+      </c>
+      <c r="I39">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J39" t="s">
+        <v>363</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="R39">
+        <v>3.5</v>
+      </c>
+      <c r="S39">
+        <v>8</v>
+      </c>
+      <c r="T39" t="s">
+        <v>364</v>
+      </c>
+      <c r="U39" t="s">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s">
+        <v>365</v>
+      </c>
+      <c r="W39">
+        <v>10.5</v>
+      </c>
+      <c r="X39" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y39">
+        <v>10.5</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA39">
+        <v>10.25</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC39">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>367</v>
+      </c>
+      <c r="F40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H40" t="s">
+        <v>370</v>
+      </c>
+      <c r="I40">
+        <v>10.5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>371</v>
+      </c>
+      <c r="K40" t="s">
+        <v>372</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="R40">
+        <v>3.5</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40" t="s">
+        <v>373</v>
+      </c>
+      <c r="U40" t="s">
+        <v>38</v>
+      </c>
+      <c r="V40" t="s">
+        <v>357</v>
+      </c>
+      <c r="W40">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="X40" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y40">
+        <v>10.5</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA40">
+        <v>10.5</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC40">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C41" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>376</v>
+      </c>
+      <c r="F41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" t="s">
+        <v>379</v>
+      </c>
+      <c r="I41">
+        <v>7.25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>380</v>
+      </c>
+      <c r="K41" t="s">
+        <v>381</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="R41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S41">
+        <v>8</v>
+      </c>
+      <c r="T41" t="s">
+        <v>314</v>
+      </c>
+      <c r="U41" t="s">
+        <v>38</v>
+      </c>
+      <c r="V41" t="s">
+        <v>239</v>
+      </c>
+      <c r="W41">
+        <v>10.5</v>
+      </c>
+      <c r="X41" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y41">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA41">
+        <v>10.5</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC41">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>383</v>
+      </c>
+      <c r="F42" t="s">
+        <v>384</v>
+      </c>
+      <c r="G42" t="s">
+        <v>385</v>
+      </c>
+      <c r="H42" t="s">
+        <v>386</v>
+      </c>
+      <c r="I42">
+        <v>7.95</v>
+      </c>
+      <c r="J42" t="s">
+        <v>387</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="R42">
+        <v>1.5</v>
+      </c>
+      <c r="S42">
+        <v>5.5</v>
+      </c>
+      <c r="T42" t="s">
+        <v>314</v>
+      </c>
+      <c r="U42" t="s">
+        <v>38</v>
+      </c>
+      <c r="V42" t="s">
+        <v>374</v>
+      </c>
+      <c r="W42">
+        <v>7.25</v>
+      </c>
+      <c r="X42" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y42">
+        <v>10.5</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA42">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC42">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>389</v>
+      </c>
+      <c r="F43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H43" t="s">
+        <v>392</v>
+      </c>
+      <c r="I43">
+        <v>9.25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>393</v>
+      </c>
+      <c r="K43" t="s">
+        <v>330</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="R43">
+        <v>3.5</v>
+      </c>
+      <c r="S43">
+        <v>7.5</v>
+      </c>
+      <c r="T43" t="s">
+        <v>314</v>
+      </c>
+      <c r="U43" t="s">
+        <v>38</v>
+      </c>
+      <c r="V43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W43">
+        <v>7.95</v>
+      </c>
+      <c r="X43" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y43">
+        <v>7.25</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA43">
+        <v>10.5</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC43">
+        <v>9.9499999999999993</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9DE90-F199-9447-A279-AD8DFEA2466F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCC6EE1-0F26-2540-A400-5800F6A8DD44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="402">
   <si>
     <t>ID</t>
   </si>
@@ -1233,6 +1233,12 @@
   </si>
   <si>
     <t>Images/products/Rockabyes/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1/64</t>
   </si>
 </sst>
 </file>
@@ -1729,16 +1735,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2096,18 +2101,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N27" sqref="N27"/>
+      <selection pane="topRight" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" customWidth="1"/>
-    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="20" max="20" width="181.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="99.83203125" customWidth="1"/>
     <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -3899,7 +3904,7 @@
       <c r="K23" t="s">
         <v>235</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>235</v>
       </c>
       <c r="R23">
@@ -3973,7 +3978,7 @@
       <c r="K24" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="R24">
@@ -4047,7 +4052,7 @@
       <c r="K25" t="s">
         <v>116</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>116</v>
       </c>
       <c r="R25">
@@ -4121,7 +4126,7 @@
       <c r="K26" t="s">
         <v>263</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="4" t="s">
         <v>263</v>
       </c>
       <c r="R26">
@@ -4195,7 +4200,7 @@
       <c r="K27" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="4" t="s">
         <v>52</v>
       </c>
       <c r="R27">
@@ -4269,7 +4274,7 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="R28">
@@ -4343,14 +4348,14 @@
       <c r="K29" t="s">
         <v>288</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="R29" s="4">
-        <v>23377</v>
-      </c>
-      <c r="S29" s="5">
-        <v>44317</v>
+      <c r="R29" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="T29" t="s">
         <v>289</v>
@@ -4417,7 +4422,7 @@
       <c r="K30" t="s">
         <v>288</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="4" t="s">
         <v>288</v>
       </c>
       <c r="R30">
@@ -4491,7 +4496,7 @@
       <c r="K31" t="s">
         <v>305</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="4" t="s">
         <v>305</v>
       </c>
       <c r="R31">
@@ -4565,7 +4570,7 @@
       <c r="K32" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="R32">
@@ -4639,7 +4644,7 @@
       <c r="K33" t="s">
         <v>322</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="4" t="s">
         <v>322</v>
       </c>
       <c r="R33">
@@ -4713,7 +4718,7 @@
       <c r="K34" t="s">
         <v>330</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="4" t="s">
         <v>330</v>
       </c>
       <c r="R34">
@@ -4787,7 +4792,7 @@
       <c r="K35" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="4" t="s">
         <v>52</v>
       </c>
       <c r="M35" t="s">
@@ -4864,7 +4869,7 @@
       <c r="K36" t="s">
         <v>305</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="4" t="s">
         <v>305</v>
       </c>
       <c r="R36">
@@ -4938,7 +4943,7 @@
       <c r="K37" t="s">
         <v>288</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="4" t="s">
         <v>288</v>
       </c>
       <c r="R37">
@@ -5012,7 +5017,7 @@
       <c r="K38" t="s">
         <v>235</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="4" t="s">
         <v>235</v>
       </c>
       <c r="R38">
@@ -5086,7 +5091,7 @@
       <c r="K39" t="s">
         <v>305</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="4" t="s">
         <v>305</v>
       </c>
       <c r="R39">
@@ -5160,7 +5165,7 @@
       <c r="K40" t="s">
         <v>372</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="4" t="s">
         <v>372</v>
       </c>
       <c r="R40">
@@ -5234,7 +5239,7 @@
       <c r="K41" t="s">
         <v>381</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="4" t="s">
         <v>381</v>
       </c>
       <c r="R41">
@@ -5308,7 +5313,7 @@
       <c r="K42" t="s">
         <v>330</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="4" t="s">
         <v>330</v>
       </c>
       <c r="R42">
@@ -5382,7 +5387,7 @@
       <c r="K43" t="s">
         <v>330</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="4" t="s">
         <v>330</v>
       </c>
       <c r="R43">

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCC6EE1-0F26-2540-A400-5800F6A8DD44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55557A74-50FE-994D-898B-1510984E9907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -1239,6 +1239,9 @@
   </si>
   <si>
     <t>1/64</t>
+  </si>
+  <si>
+    <t>OUT OF STOCK</t>
   </si>
 </sst>
 </file>
@@ -2101,9 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="178" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2267,25 +2270,25 @@
         <v>17</v>
       </c>
       <c r="W2">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="s">
         <v>18</v>
       </c>
       <c r="Y2">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z2" t="s">
         <v>20</v>
       </c>
       <c r="AA2">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB2" t="s">
         <v>56</v>
       </c>
       <c r="AC2">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -2347,25 +2350,25 @@
         <v>20</v>
       </c>
       <c r="W3">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="s">
         <v>13</v>
       </c>
       <c r="Y3">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="Z3" t="s">
         <v>41</v>
       </c>
       <c r="AA3">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB3" t="s">
         <v>10</v>
       </c>
       <c r="AC3">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -2430,25 +2433,25 @@
         <v>63</v>
       </c>
       <c r="W4">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X4" t="s">
         <v>41</v>
       </c>
       <c r="Y4">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="s">
         <v>56</v>
       </c>
       <c r="AA4">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="AB4" t="s">
         <v>42</v>
       </c>
       <c r="AC4">
-        <v>8.9499999999999993</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2510,25 +2513,25 @@
         <v>20</v>
       </c>
       <c r="W5">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X5" t="s">
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="s">
         <v>63</v>
       </c>
       <c r="AA5">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB5" t="s">
         <v>17</v>
       </c>
       <c r="AC5">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2596,25 +2599,25 @@
         <v>18</v>
       </c>
       <c r="W6">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X6" t="s">
         <v>8</v>
       </c>
       <c r="Y6">
-        <v>8.9499999999999993</v>
+        <v>7.16</v>
       </c>
       <c r="Z6" t="s">
         <v>10</v>
       </c>
       <c r="AA6">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB6" t="s">
         <v>56</v>
       </c>
       <c r="AC6">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2672,26 +2675,26 @@
       <c r="V7" t="s">
         <v>19</v>
       </c>
-      <c r="W7">
-        <v>10.95</v>
+      <c r="W7" t="s">
+        <v>402</v>
       </c>
       <c r="X7" t="s">
         <v>10</v>
       </c>
       <c r="Y7">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="s">
         <v>15</v>
       </c>
       <c r="AA7">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB7" t="s">
         <v>42</v>
       </c>
       <c r="AC7">
-        <v>8.9499999999999993</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -2753,25 +2756,25 @@
         <v>56</v>
       </c>
       <c r="W8">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="X8" t="s">
         <v>13</v>
       </c>
       <c r="Y8">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="Z8" t="s">
         <v>18</v>
       </c>
       <c r="AA8">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB8" t="s">
         <v>8</v>
       </c>
       <c r="AC8">
-        <v>8.9499999999999993</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2836,25 +2839,25 @@
         <v>63</v>
       </c>
       <c r="W9">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X9" t="s">
         <v>42</v>
       </c>
       <c r="Y9">
-        <v>8.9499999999999993</v>
+        <v>7.16</v>
       </c>
       <c r="Z9" t="s">
         <v>10</v>
       </c>
       <c r="AA9">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB9" t="s">
         <v>20</v>
       </c>
       <c r="AC9">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2916,25 +2919,25 @@
         <v>8</v>
       </c>
       <c r="W10">
-        <v>8.9499999999999993</v>
+        <v>7.16</v>
       </c>
       <c r="X10" t="s">
         <v>13</v>
       </c>
       <c r="Y10">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="Z10" t="s">
         <v>19</v>
       </c>
       <c r="AA10">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="AB10" t="s">
         <v>41</v>
       </c>
       <c r="AC10">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2996,25 +2999,25 @@
         <v>18</v>
       </c>
       <c r="W11">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X11" t="s">
         <v>17</v>
       </c>
       <c r="Y11">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z11" t="s">
         <v>41</v>
       </c>
       <c r="AA11">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB11" t="s">
         <v>10</v>
       </c>
       <c r="AC11">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -3082,25 +3085,25 @@
         <v>20</v>
       </c>
       <c r="W12">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="s">
         <v>41</v>
       </c>
       <c r="Y12">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z12" t="s">
         <v>56</v>
       </c>
       <c r="AA12">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="AB12" t="s">
         <v>17</v>
       </c>
       <c r="AC12">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -3168,25 +3171,25 @@
         <v>42</v>
       </c>
       <c r="W13">
-        <v>8.9499999999999993</v>
+        <v>7.16</v>
       </c>
       <c r="X13" t="s">
         <v>13</v>
       </c>
       <c r="Y13">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="Z13" t="s">
         <v>63</v>
       </c>
       <c r="AA13">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB13" t="s">
         <v>41</v>
       </c>
       <c r="AC13">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -3245,25 +3248,25 @@
         <v>150</v>
       </c>
       <c r="W14">
-        <v>12.95</v>
+        <v>10.36</v>
       </c>
       <c r="X14" t="s">
         <v>151</v>
       </c>
       <c r="Y14">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
       <c r="Z14" t="s">
         <v>152</v>
       </c>
       <c r="AA14">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="s">
         <v>153</v>
       </c>
       <c r="AC14">
-        <v>7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -3322,25 +3325,25 @@
         <v>143</v>
       </c>
       <c r="W15">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X15" t="s">
         <v>162</v>
       </c>
       <c r="Y15">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
       <c r="Z15" t="s">
         <v>163</v>
       </c>
       <c r="AA15">
-        <v>11.95</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="s">
         <v>150</v>
       </c>
       <c r="AC15">
-        <v>12.95</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -3399,25 +3402,25 @@
         <v>154</v>
       </c>
       <c r="W16">
-        <v>11.95</v>
+        <v>9.56</v>
       </c>
       <c r="X16" t="s">
         <v>143</v>
       </c>
       <c r="Y16">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z16" t="s">
         <v>162</v>
       </c>
       <c r="AA16">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
       <c r="AB16" t="s">
         <v>152</v>
       </c>
       <c r="AC16">
-        <v>11.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -3473,25 +3476,25 @@
         <v>164</v>
       </c>
       <c r="W17">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="X17" t="s">
         <v>154</v>
       </c>
       <c r="Y17">
-        <v>10.95</v>
+        <v>9.56</v>
       </c>
       <c r="Z17" t="s">
         <v>143</v>
       </c>
       <c r="AA17">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB17" t="s">
         <v>178</v>
       </c>
       <c r="AC17">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -3550,25 +3553,25 @@
         <v>163</v>
       </c>
       <c r="W18">
-        <v>11.95</v>
+        <v>9.56</v>
       </c>
       <c r="X18" t="s">
         <v>164</v>
       </c>
       <c r="Y18">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="s">
         <v>154</v>
       </c>
       <c r="AA18">
-        <v>11.95</v>
+        <v>9.56</v>
       </c>
       <c r="AB18" t="s">
         <v>185</v>
       </c>
       <c r="AC18">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3624,25 +3627,25 @@
         <v>152</v>
       </c>
       <c r="W19">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="X19" t="s">
         <v>163</v>
       </c>
       <c r="Y19">
-        <v>11.95</v>
+        <v>9.56</v>
       </c>
       <c r="Z19" t="s">
         <v>164</v>
       </c>
       <c r="AA19">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="s">
         <v>154</v>
       </c>
       <c r="AC19">
-        <v>11.95</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -3701,25 +3704,25 @@
         <v>153</v>
       </c>
       <c r="W20">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X20" t="s">
         <v>152</v>
       </c>
       <c r="Y20">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="s">
         <v>151</v>
       </c>
       <c r="AA20">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
       <c r="AB20" t="s">
         <v>164</v>
       </c>
       <c r="AC20">
-        <v>11.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -3775,25 +3778,25 @@
         <v>162</v>
       </c>
       <c r="W21">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
       <c r="X21" t="s">
         <v>150</v>
       </c>
       <c r="Y21">
-        <v>12.95</v>
+        <v>10.36</v>
       </c>
       <c r="Z21" t="s">
         <v>153</v>
       </c>
       <c r="AA21">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="s">
         <v>163</v>
       </c>
       <c r="AC21">
-        <v>11.95</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="34" x14ac:dyDescent="0.2">
@@ -3849,25 +3852,25 @@
         <v>151</v>
       </c>
       <c r="W22">
-        <v>17.95</v>
+        <v>14.36</v>
       </c>
       <c r="X22" t="s">
         <v>153</v>
       </c>
       <c r="Y22">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="s">
         <v>150</v>
       </c>
       <c r="AA22">
-        <v>12.95</v>
+        <v>10.36</v>
       </c>
       <c r="AB22" t="s">
         <v>143</v>
       </c>
       <c r="AC22">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -3923,25 +3926,25 @@
         <v>237</v>
       </c>
       <c r="W23">
-        <v>9.25</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="s">
         <v>238</v>
       </c>
       <c r="Y23">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
       <c r="Z23" t="s">
         <v>374</v>
       </c>
       <c r="AA23">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="AB23" t="s">
         <v>239</v>
       </c>
       <c r="AC23">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3997,25 +4000,25 @@
         <v>228</v>
       </c>
       <c r="W24">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="X24" t="s">
         <v>237</v>
       </c>
       <c r="Y24">
-        <v>9.25</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="s">
         <v>238</v>
       </c>
       <c r="AA24">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
       <c r="AB24" t="s">
         <v>374</v>
       </c>
       <c r="AC24">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -4071,25 +4074,25 @@
         <v>240</v>
       </c>
       <c r="W25">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="s">
         <v>228</v>
       </c>
       <c r="Y25">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="Z25" t="s">
         <v>237</v>
       </c>
       <c r="AA25">
-        <v>9.25</v>
+        <v>7.4</v>
       </c>
       <c r="AB25" t="s">
         <v>238</v>
       </c>
       <c r="AC25">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -4145,25 +4148,25 @@
         <v>248</v>
       </c>
       <c r="W26">
-        <v>6.95</v>
+        <v>5.56</v>
       </c>
       <c r="X26" t="s">
         <v>240</v>
       </c>
       <c r="Y26">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z26" t="s">
         <v>228</v>
       </c>
       <c r="AA26">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="AB26" t="s">
         <v>237</v>
       </c>
       <c r="AC26">
-        <v>9.25</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -4219,25 +4222,25 @@
         <v>256</v>
       </c>
       <c r="W27">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="X27" t="s">
         <v>248</v>
       </c>
       <c r="Y27">
-        <v>6.95</v>
+        <v>5.56</v>
       </c>
       <c r="Z27" t="s">
         <v>240</v>
       </c>
       <c r="AA27">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB27" t="s">
         <v>228</v>
       </c>
       <c r="AC27">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -4293,25 +4296,25 @@
         <v>265</v>
       </c>
       <c r="W28">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="X28" t="s">
         <v>256</v>
       </c>
       <c r="Y28">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="Z28" t="s">
         <v>248</v>
       </c>
       <c r="AA28">
-        <v>6.95</v>
+        <v>5.56</v>
       </c>
       <c r="AB28" t="s">
         <v>240</v>
       </c>
       <c r="AC28">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -4367,25 +4370,25 @@
         <v>273</v>
       </c>
       <c r="W29">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="X29" t="s">
         <v>265</v>
       </c>
       <c r="Y29">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z29" t="s">
         <v>256</v>
       </c>
       <c r="AA29">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="AB29" t="s">
         <v>248</v>
       </c>
       <c r="AC29">
-        <v>6.95</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -4441,25 +4444,25 @@
         <v>281</v>
       </c>
       <c r="W30">
-        <v>13.25</v>
+        <v>10.6</v>
       </c>
       <c r="X30" t="s">
         <v>273</v>
       </c>
       <c r="Y30">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="s">
         <v>265</v>
       </c>
       <c r="AA30">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB30" t="s">
         <v>256</v>
       </c>
       <c r="AC30">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -4515,25 +4518,25 @@
         <v>290</v>
       </c>
       <c r="W31">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="X31" t="s">
         <v>281</v>
       </c>
       <c r="Y31">
-        <v>13.25</v>
+        <v>10.6</v>
       </c>
       <c r="Z31" t="s">
         <v>273</v>
       </c>
       <c r="AA31">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="AB31" t="s">
         <v>265</v>
       </c>
       <c r="AC31">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -4589,25 +4592,25 @@
         <v>298</v>
       </c>
       <c r="W32">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X32" t="s">
         <v>290</v>
       </c>
       <c r="Y32">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="Z32" t="s">
         <v>281</v>
       </c>
       <c r="AA32">
-        <v>13.25</v>
+        <v>10.6</v>
       </c>
       <c r="AB32" t="s">
         <v>273</v>
       </c>
       <c r="AC32">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -4663,25 +4666,25 @@
         <v>307</v>
       </c>
       <c r="W33">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
       <c r="X33" t="s">
         <v>298</v>
       </c>
       <c r="Y33">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z33" t="s">
         <v>290</v>
       </c>
       <c r="AA33">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="AB33" t="s">
         <v>281</v>
       </c>
       <c r="AC33">
-        <v>13.25</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -4737,25 +4740,25 @@
         <v>315</v>
       </c>
       <c r="W34">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="X34" t="s">
         <v>307</v>
       </c>
       <c r="Y34">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
       <c r="Z34" t="s">
         <v>298</v>
       </c>
       <c r="AA34">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB34" t="s">
         <v>290</v>
       </c>
       <c r="AC34">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -4814,25 +4817,25 @@
         <v>394</v>
       </c>
       <c r="W35">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X35" t="s">
         <v>315</v>
       </c>
       <c r="Y35">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="Z35" t="s">
         <v>307</v>
       </c>
       <c r="AA35">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
       <c r="AB35" t="s">
         <v>298</v>
       </c>
       <c r="AC35">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -4888,25 +4891,25 @@
         <v>331</v>
       </c>
       <c r="W36">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="X36" t="s">
         <v>394</v>
       </c>
       <c r="Y36">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z36" t="s">
         <v>315</v>
       </c>
       <c r="AA36">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="AB36" t="s">
         <v>307</v>
       </c>
       <c r="AC36">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -4962,25 +4965,25 @@
         <v>395</v>
       </c>
       <c r="W37">
-        <v>10.25</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="X37" t="s">
         <v>331</v>
       </c>
       <c r="Y37">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="Z37" t="s">
         <v>394</v>
       </c>
       <c r="AA37">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB37" t="s">
         <v>315</v>
       </c>
       <c r="AC37">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -5036,25 +5039,25 @@
         <v>342</v>
       </c>
       <c r="W38">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X38" t="s">
         <v>395</v>
       </c>
       <c r="Y38">
-        <v>10.25</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Z38" t="s">
         <v>331</v>
       </c>
       <c r="AA38">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
       <c r="AB38" t="s">
         <v>394</v>
       </c>
       <c r="AC38">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
@@ -5110,25 +5113,25 @@
         <v>365</v>
       </c>
       <c r="W39">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X39" t="s">
         <v>342</v>
       </c>
       <c r="Y39">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z39" t="s">
         <v>395</v>
       </c>
       <c r="AA39">
-        <v>10.25</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AB39" t="s">
         <v>331</v>
       </c>
       <c r="AC39">
-        <v>10.95</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -5184,25 +5187,25 @@
         <v>357</v>
       </c>
       <c r="W40">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="X40" t="s">
         <v>350</v>
       </c>
       <c r="Y40">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z40" t="s">
         <v>342</v>
       </c>
       <c r="AA40">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB40" t="s">
         <v>395</v>
       </c>
       <c r="AC40">
-        <v>10.25</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -5258,25 +5261,25 @@
         <v>239</v>
       </c>
       <c r="W41">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="X41" t="s">
         <v>357</v>
       </c>
       <c r="Y41">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="Z41" t="s">
         <v>350</v>
       </c>
       <c r="AA41">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB41" t="s">
         <v>342</v>
       </c>
       <c r="AC41">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -5332,25 +5335,25 @@
         <v>374</v>
       </c>
       <c r="W42">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="X42" t="s">
         <v>239</v>
       </c>
       <c r="Y42">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z42" t="s">
         <v>357</v>
       </c>
       <c r="AA42">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
       <c r="AB42" t="s">
         <v>350</v>
       </c>
       <c r="AC42">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -5406,25 +5409,25 @@
         <v>238</v>
       </c>
       <c r="W43">
-        <v>7.95</v>
+        <v>6.36</v>
       </c>
       <c r="X43" t="s">
         <v>374</v>
       </c>
       <c r="Y43">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="Z43" t="s">
         <v>239</v>
       </c>
       <c r="AA43">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB43" t="s">
         <v>357</v>
       </c>
       <c r="AC43">
-        <v>9.9499999999999993</v>
+        <v>7.96</v>
       </c>
     </row>
   </sheetData>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55557A74-50FE-994D-898B-1510984E9907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC58E1D-8CF8-7E41-9999-E925C562F49C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -1163,18 +1163,6 @@
     <t>price_1I6IjEHqV6fz8FYoOF42bz9n</t>
   </si>
   <si>
-    <t>Images/products/Wavey Babies/main.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Wavey Babies/thumb1.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Wavey Babies/thumb2.jpeg</t>
-  </si>
-  <si>
-    <t>Images/products/Wavey Babies/thumb3.jpeg</t>
-  </si>
-  <si>
     <t>price_1I6IjEHqV6fz8FYoQW82hGGb</t>
   </si>
   <si>
@@ -1241,7 +1229,19 @@
     <t>1/64</t>
   </si>
   <si>
-    <t>OUT OF STOCK</t>
+    <t>RESTOCKING SOON</t>
+  </si>
+  <si>
+    <t>Images/products/Wavy Babies/main.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wavy Babies/thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wavy Babies/thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Images/products/Wavy Babies/thumb3.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2104,9 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="178" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,7 +2676,7 @@
         <v>19</v>
       </c>
       <c r="W7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="X7" t="s">
         <v>10</v>
@@ -2930,8 +2930,8 @@
       <c r="Z10" t="s">
         <v>19</v>
       </c>
-      <c r="AA10">
-        <v>8.76</v>
+      <c r="AA10" t="s">
+        <v>398</v>
       </c>
       <c r="AB10" t="s">
         <v>41</v>
@@ -4355,10 +4355,10 @@
         <v>288</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="T29" t="s">
         <v>289</v>
@@ -4692,7 +4692,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
         <v>324</v>
@@ -4814,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="V35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="W35">
         <v>8.4</v>
@@ -4843,7 +4843,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
         <v>339</v>
@@ -4852,16 +4852,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F36" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G36" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H36" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I36">
         <v>10.25</v>
@@ -4894,7 +4894,7 @@
         <v>8.76</v>
       </c>
       <c r="X36" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Y36">
         <v>8.4</v>
@@ -4962,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="V37" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="W37">
         <v>8.1999999999999993</v>
@@ -4974,7 +4974,7 @@
         <v>8.76</v>
       </c>
       <c r="Z37" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AA37">
         <v>8.4</v>
@@ -5042,7 +5042,7 @@
         <v>8.4</v>
       </c>
       <c r="X38" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Y38">
         <v>8.1999999999999993</v>
@@ -5054,7 +5054,7 @@
         <v>8.76</v>
       </c>
       <c r="AB38" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AC38">
         <v>8.4</v>
@@ -5122,7 +5122,7 @@
         <v>8.4</v>
       </c>
       <c r="Z39" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AA39">
         <v>8.1999999999999993</v>
@@ -5202,7 +5202,7 @@
         <v>8.4</v>
       </c>
       <c r="AB40" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AC40">
         <v>8.1999999999999993</v>
@@ -5222,28 +5222,28 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="G41" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H41" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="I41">
         <v>7.25</v>
       </c>
       <c r="J41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K41" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R41">
         <v>2.2999999999999998</v>
@@ -5290,28 +5290,28 @@
         <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F42" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H42" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I42">
         <v>7.95</v>
       </c>
       <c r="J42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K42" t="s">
         <v>330</v>
@@ -5364,28 +5364,28 @@
         <v>237</v>
       </c>
       <c r="C43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F43" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G43" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H43" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I43">
         <v>9.25</v>
       </c>
       <c r="J43" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
         <v>330</v>

--- a/admin/products.xlsx
+++ b/admin/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanvanniekerk/Desktop/MadeByB/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC58E1D-8CF8-7E41-9999-E925C562F49C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECCDD2-AAA4-1349-935A-39E12D29CF06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,9 +1208,6 @@
     <t>Wine-Bows</t>
   </si>
   <si>
-    <t xml:space="preserve">Rockabyes </t>
-  </si>
-  <si>
     <t>Images/products/Rockabyes/main.jpeg</t>
   </si>
   <si>
@@ -1242,6 +1239,9 @@
   </si>
   <si>
     <t>Images/products/Wavy Babies/thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>Rockabyes</t>
   </si>
 </sst>
 </file>
@@ -2104,9 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,7 +2676,7 @@
         <v>19</v>
       </c>
       <c r="W7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X7" t="s">
         <v>10</v>
@@ -2931,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="AA10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB10" t="s">
         <v>41</v>
@@ -4355,10 +4355,10 @@
         <v>288</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T29" t="s">
         <v>289</v>
@@ -4843,7 +4843,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
         <v>339</v>
@@ -4852,16 +4852,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" t="s">
         <v>392</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>393</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>394</v>
-      </c>
-      <c r="H36" t="s">
-        <v>395</v>
       </c>
       <c r="I36">
         <v>10.25</v>
@@ -4962,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="V37" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="W37">
         <v>8.1999999999999993</v>
@@ -5042,7 +5042,7 @@
         <v>8.4</v>
       </c>
       <c r="X38" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Y38">
         <v>8.1999999999999993</v>
@@ -5122,7 +5122,7 @@
         <v>8.4</v>
       </c>
       <c r="Z39" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="AA39">
         <v>8.1999999999999993</v>
@@ -5202,7 +5202,7 @@
         <v>8.4</v>
       </c>
       <c r="AB40" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="AC40">
         <v>8.1999999999999993</v>
@@ -5222,16 +5222,16 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
+        <v>398</v>
+      </c>
+      <c r="F41" t="s">
         <v>399</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>400</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>401</v>
-      </c>
-      <c r="H41" t="s">
-        <v>402</v>
       </c>
       <c r="I41">
         <v>7.25</v>
